--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>英単語</t>
   </si>
@@ -46,6 +46,9 @@
     <t>最適化</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
     <t>最適化確率</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>速さ1/2</t>
+  </si>
+  <si>
+    <t>○</t>
   </si>
   <si>
     <t>1/2確率</t>
@@ -206,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -224,6 +230,9 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -304,7 +313,9 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -315,7 +326,9 @@
     </row>
     <row r="7">
       <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -329,7 +342,9 @@
     </row>
     <row r="8">
       <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -340,7 +355,9 @@
     </row>
     <row r="9">
       <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -352,7 +369,9 @@
     </row>
     <row r="10">
       <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -363,22 +382,26 @@
     </row>
     <row r="11">
       <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -389,7 +412,9 @@
     </row>
     <row r="13">
       <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -400,7 +425,9 @@
     </row>
     <row r="14">
       <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -411,7 +438,9 @@
     </row>
     <row r="15">
       <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -422,7 +451,9 @@
     </row>
     <row r="16">
       <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -432,23 +463,27 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17">
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="B17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -459,7 +494,9 @@
     </row>
     <row r="19">
       <c r="B19" s="5"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -470,7 +507,9 @@
     </row>
     <row r="20">
       <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -481,7 +520,9 @@
     </row>
     <row r="21">
       <c r="B21" s="5"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -492,7 +533,9 @@
     </row>
     <row r="22">
       <c r="B22" s="6"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -502,23 +545,27 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23">
-      <c r="B23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="B23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24">
       <c r="B24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -529,7 +576,9 @@
     </row>
     <row r="25">
       <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -540,7 +589,9 @@
     </row>
     <row r="26">
       <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -551,7 +602,9 @@
     </row>
     <row r="27">
       <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -562,7 +615,9 @@
     </row>
     <row r="28">
       <c r="B28" s="6"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -572,23 +627,27 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29">
-      <c r="B29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="B29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30">
       <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -599,7 +658,9 @@
     </row>
     <row r="31">
       <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -610,7 +671,9 @@
     </row>
     <row r="32">
       <c r="B32" s="5"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -621,7 +684,9 @@
     </row>
     <row r="33">
       <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -632,7 +697,9 @@
     </row>
     <row r="34">
       <c r="B34" s="6"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -642,47 +709,49 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35">
-      <c r="B35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="B35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="12"/>
     </row>
     <row r="40">
       <c r="B40" s="4" t="s">
@@ -694,8 +763,8 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41">
       <c r="B41" s="5"/>
@@ -705,8 +774,8 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42">
       <c r="B42" s="5"/>
@@ -716,8 +785,8 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43">
       <c r="B43" s="5"/>
@@ -727,8 +796,8 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44">
       <c r="B44" s="6"/>
@@ -738,25 +807,25 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45">
-      <c r="B45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="13"/>
+      <c r="B45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46">
       <c r="B46" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -764,8 +833,8 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47">
       <c r="B47" s="5"/>
@@ -775,8 +844,8 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48">
       <c r="B48" s="5"/>
@@ -786,8 +855,8 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -797,8 +866,8 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50">
       <c r="B50" s="6"/>
@@ -808,25 +877,25 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51">
-      <c r="B51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="13"/>
+      <c r="B51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52">
       <c r="B52" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -834,8 +903,8 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53">
       <c r="B53" s="5"/>
@@ -845,8 +914,8 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54">
       <c r="B54" s="5"/>
@@ -856,8 +925,8 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="14"/>
     </row>
     <row r="55">
       <c r="B55" s="5"/>
@@ -867,8 +936,8 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="56">
       <c r="B56" s="6"/>
@@ -878,25 +947,25 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57">
-      <c r="B57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="13"/>
+      <c r="B57" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58">
       <c r="B58" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -904,8 +973,8 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14"/>
     </row>
     <row r="59">
       <c r="B59" s="5"/>
@@ -915,8 +984,8 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="14"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
@@ -926,8 +995,8 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
@@ -937,8 +1006,8 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
     </row>
     <row r="62">
       <c r="B62" s="6"/>
@@ -948,25 +1017,25 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63">
-      <c r="B63" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="13"/>
+      <c r="B63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64">
       <c r="B64" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -974,8 +1043,8 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
@@ -985,8 +1054,8 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="14"/>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
@@ -996,8 +1065,8 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67">
       <c r="B67" s="5"/>
@@ -1007,8 +1076,8 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68">
       <c r="B68" s="6"/>
@@ -1018,23 +1087,25 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69">
-      <c r="B69" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="B69" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B46:B50"/>
     <mergeCell ref="B52:B56"/>
@@ -1042,8 +1113,6 @@
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B34"/>
     <mergeCell ref="B6:B10"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
   <si>
     <t>英単語</t>
   </si>
@@ -49,6 +49,9 @@
     <t>×</t>
   </si>
   <si>
+    <t>○</t>
+  </si>
+  <si>
     <t>最適化確率</t>
   </si>
   <si>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>速さ1/2</t>
-  </si>
-  <si>
-    <t>○</t>
   </si>
   <si>
     <t>1/2確率</t>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -231,10 +231,10 @@
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,6 +246,7 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -316,9 +317,15 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -329,9 +336,15 @@
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -345,9 +358,15 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -358,9 +377,15 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -372,9 +397,15 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -382,14 +413,20 @@
     </row>
     <row r="11">
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8">
         <v>0.0</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.2</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -397,14 +434,20 @@
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -415,9 +458,15 @@
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -428,9 +477,15 @@
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -441,9 +496,15 @@
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -454,9 +515,15 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -464,14 +531,20 @@
     </row>
     <row r="17">
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="8">
         <v>0.0</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.0</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -479,14 +552,20 @@
     </row>
     <row r="18">
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -497,9 +576,15 @@
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -508,11 +593,17 @@
     <row r="20">
       <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -521,11 +612,17 @@
     <row r="21">
       <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -534,11 +631,17 @@
     <row r="22">
       <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -551,9 +654,15 @@
       <c r="C23" s="8">
         <v>0.8</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.4</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -566,9 +675,15 @@
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -579,9 +694,15 @@
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -592,9 +713,15 @@
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -605,9 +732,15 @@
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -618,9 +751,15 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -633,9 +772,15 @@
       <c r="C29" s="8">
         <v>0.0</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="D29" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.2</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -648,9 +793,15 @@
       <c r="C30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -661,9 +812,15 @@
       <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -674,9 +831,15 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -687,9 +850,15 @@
       <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -700,9 +869,15 @@
       <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -715,9 +890,15 @@
       <c r="C35" s="8">
         <v>0.0</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="D35" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.0</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -812,20 +993,20 @@
     </row>
     <row r="45">
       <c r="B45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="16"/>
       <c r="J45" s="14"/>
     </row>
     <row r="46">
       <c r="B46" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -882,20 +1063,20 @@
     </row>
     <row r="51">
       <c r="B51" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="16"/>
       <c r="J51" s="14"/>
     </row>
     <row r="52">
       <c r="B52" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -954,13 +1135,13 @@
       <c r="B57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="16"/>
       <c r="J57" s="14"/>
     </row>
     <row r="58">
@@ -1024,13 +1205,13 @@
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="16"/>
       <c r="J63" s="14"/>
     </row>
     <row r="64">
@@ -1091,16 +1272,16 @@
       <c r="J68" s="14"/>
     </row>
     <row r="69">
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="30">
   <si>
     <t>英単語</t>
   </si>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -232,6 +232,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -326,8 +329,12 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
@@ -345,8 +352,12 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
@@ -367,8 +378,12 @@
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
@@ -386,8 +401,12 @@
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
@@ -406,8 +425,12 @@
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
@@ -427,10 +450,14 @@
       <c r="F11" s="8">
         <v>0.2</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="G11" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
@@ -448,8 +475,12 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
@@ -467,8 +498,12 @@
       <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
@@ -486,8 +521,12 @@
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
@@ -505,8 +544,12 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
@@ -524,13 +567,17 @@
       <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="8">
@@ -545,10 +592,14 @@
       <c r="F17" s="8">
         <v>0.0</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="G17" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="s">
@@ -566,8 +617,12 @@
       <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
@@ -585,8 +640,12 @@
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
@@ -604,8 +663,12 @@
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
@@ -623,8 +686,12 @@
       <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
@@ -642,13 +709,17 @@
       <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="8">
@@ -663,10 +734,14 @@
       <c r="F23" s="8">
         <v>0.4</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="G23" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24">
       <c r="B24" s="4" t="s">
@@ -684,8 +759,12 @@
       <c r="F24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
@@ -703,8 +782,12 @@
       <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -722,8 +805,12 @@
       <c r="F26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
@@ -741,8 +828,12 @@
       <c r="F27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
@@ -760,13 +851,17 @@
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="8">
@@ -781,10 +876,14 @@
       <c r="F29" s="8">
         <v>0.2</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="G29" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30">
       <c r="B30" s="4" t="s">
@@ -802,8 +901,12 @@
       <c r="F30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
@@ -821,8 +924,12 @@
       <c r="F31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
@@ -840,8 +947,12 @@
       <c r="F32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -859,8 +970,12 @@
       <c r="F33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
@@ -878,13 +993,17 @@
       <c r="F34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="8">
@@ -899,10 +1018,14 @@
       <c r="F35" s="8">
         <v>0.0</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="G35" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
@@ -929,10 +1052,10 @@
       <c r="H39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40">
       <c r="B40" s="4" t="s">
@@ -944,8 +1067,8 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41">
       <c r="B41" s="5"/>
@@ -955,8 +1078,8 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42">
       <c r="B42" s="5"/>
@@ -966,8 +1089,8 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43">
       <c r="B43" s="5"/>
@@ -977,8 +1100,8 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="44">
       <c r="B44" s="6"/>
@@ -988,21 +1111,21 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
     </row>
     <row r="45">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="15"/>
     </row>
     <row r="46">
       <c r="B46" s="4" t="s">
@@ -1014,8 +1137,8 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47">
       <c r="B47" s="5"/>
@@ -1025,8 +1148,8 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48">
       <c r="B48" s="5"/>
@@ -1036,8 +1159,8 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
@@ -1047,8 +1170,8 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50">
       <c r="B50" s="6"/>
@@ -1058,21 +1181,21 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="15"/>
     </row>
     <row r="52">
       <c r="B52" s="4" t="s">
@@ -1084,8 +1207,8 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15"/>
     </row>
     <row r="53">
       <c r="B53" s="5"/>
@@ -1095,8 +1218,8 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
     </row>
     <row r="54">
       <c r="B54" s="5"/>
@@ -1106,8 +1229,8 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15"/>
     </row>
     <row r="55">
       <c r="B55" s="5"/>
@@ -1117,8 +1240,8 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
     </row>
     <row r="56">
       <c r="B56" s="6"/>
@@ -1128,21 +1251,21 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
     </row>
     <row r="57">
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="14"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="15"/>
     </row>
     <row r="58">
       <c r="B58" s="4" t="s">
@@ -1154,8 +1277,8 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="15"/>
     </row>
     <row r="59">
       <c r="B59" s="5"/>
@@ -1165,8 +1288,8 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
@@ -1176,8 +1299,8 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
@@ -1187,8 +1310,8 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
     </row>
     <row r="62">
       <c r="B62" s="6"/>
@@ -1198,21 +1321,21 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
     </row>
     <row r="63">
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="14"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="15"/>
     </row>
     <row r="64">
       <c r="B64" s="4" t="s">
@@ -1224,8 +1347,8 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
@@ -1235,8 +1358,8 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
@@ -1246,8 +1369,8 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
     </row>
     <row r="67">
       <c r="B67" s="5"/>
@@ -1257,8 +1380,8 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="15"/>
     </row>
     <row r="68">
       <c r="B68" s="6"/>
@@ -1268,23 +1391,26 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="15"/>
     </row>
     <row r="69">
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B6:B10"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B40:B44"/>
@@ -1292,9 +1418,6 @@
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="30">
   <si>
     <t>英単語</t>
   </si>
@@ -234,10 +234,7 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,6 +247,9 @@
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -335,8 +335,12 @@
       <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="5"/>
@@ -358,8 +362,12 @@
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -384,8 +392,12 @@
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="5"/>
@@ -407,8 +419,12 @@
       <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
@@ -431,8 +447,12 @@
       <c r="H10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="7" t="s">
@@ -450,14 +470,22 @@
       <c r="F11" s="8">
         <v>0.2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>0.6</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0.2</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f>sum(C11:J11)/8</f>
+        <v>30%</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
@@ -481,8 +509,12 @@
       <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="5"/>
@@ -504,8 +536,12 @@
       <c r="H13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="5"/>
@@ -527,8 +563,12 @@
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="5"/>
@@ -550,8 +590,12 @@
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="6"/>
@@ -573,11 +617,15 @@
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="8">
@@ -592,14 +640,22 @@
       <c r="F17" s="8">
         <v>0.0</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>0.4</v>
       </c>
-      <c r="H17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f>sum(C17:J17)/8</f>
+        <v>18%</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="4" t="s">
@@ -623,8 +679,12 @@
       <c r="H18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="5"/>
@@ -646,8 +706,12 @@
       <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="5"/>
@@ -669,8 +733,12 @@
       <c r="H20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="I20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="5"/>
@@ -692,8 +760,12 @@
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="I21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="6"/>
@@ -715,11 +787,15 @@
       <c r="H22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="8">
@@ -734,14 +810,22 @@
       <c r="F23" s="8">
         <v>0.4</v>
       </c>
-      <c r="G23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="G23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f>sum(C23:J23)/8</f>
+        <v>43%</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="4" t="s">
@@ -765,8 +849,12 @@
       <c r="H24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="I24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="5"/>
@@ -788,8 +876,12 @@
       <c r="H25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="5"/>
@@ -811,8 +903,12 @@
       <c r="H26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="I26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="5"/>
@@ -834,8 +930,12 @@
       <c r="H27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="I27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" s="6"/>
@@ -857,11 +957,15 @@
       <c r="H28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="I28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="8">
@@ -876,14 +980,22 @@
       <c r="F29" s="8">
         <v>0.2</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>0.2</v>
       </c>
-      <c r="H29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="H29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="K29" s="9" t="str">
+        <f>sum(C29:J29)/8</f>
+        <v>25%</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" s="4" t="s">
@@ -907,8 +1019,12 @@
       <c r="H30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="I30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="5"/>
@@ -930,8 +1046,12 @@
       <c r="H31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="I31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" s="5"/>
@@ -953,8 +1073,12 @@
       <c r="H32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="I32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" s="5"/>
@@ -976,8 +1100,12 @@
       <c r="H33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="I33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="6"/>
@@ -999,11 +1127,15 @@
       <c r="H34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="I34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="8">
@@ -1018,14 +1150,22 @@
       <c r="F35" s="8">
         <v>0.0</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>0.4</v>
       </c>
-      <c r="H35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="H35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="9" t="str">
+        <f>sum(C35:J35)/8</f>
+        <v>20%</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
@@ -1052,10 +1192,10 @@
       <c r="H39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="13"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40">
       <c r="B40" s="4" t="s">
@@ -1063,69 +1203,81 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41">
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42">
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43">
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44">
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="15"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46">
       <c r="B46" s="4" t="s">
@@ -1133,69 +1285,81 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47">
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48">
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49">
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50">
       <c r="B50" s="6"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="15"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52">
       <c r="B52" s="4" t="s">
@@ -1203,69 +1367,81 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53">
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54">
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="14"/>
     </row>
     <row r="55">
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="56">
       <c r="B56" s="6"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57">
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="15"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58">
       <c r="B58" s="4" t="s">
@@ -1273,69 +1449,81 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14"/>
     </row>
     <row r="59">
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="14"/>
     </row>
     <row r="60">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
     </row>
     <row r="61">
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
     </row>
     <row r="62">
       <c r="B62" s="6"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="17"/>
-      <c r="J63" s="15"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64">
       <c r="B64" s="4" t="s">
@@ -1343,71 +1531,86 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="14"/>
     </row>
     <row r="66">
       <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67">
       <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68">
       <c r="B68" s="6"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69">
       <c r="B69" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B64:B68"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B6:B10"/>
@@ -1415,9 +1618,6 @@
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B64:B68"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="30">
   <si>
     <t>英単語</t>
   </si>
@@ -1273,9 +1273,15 @@
       <c r="E40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
     </row>
@@ -1290,9 +1296,15 @@
       <c r="E41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
     </row>
@@ -1307,9 +1319,15 @@
       <c r="E42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
     </row>
@@ -1324,9 +1342,15 @@
       <c r="E43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
     </row>
@@ -1341,9 +1365,15 @@
       <c r="E44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
     </row>
@@ -1390,9 +1420,15 @@
       <c r="E46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="F46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
     </row>
@@ -1407,9 +1443,15 @@
       <c r="E47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="F47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
     </row>
@@ -1424,9 +1466,15 @@
       <c r="E48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="F48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
     </row>
@@ -1441,9 +1489,15 @@
       <c r="E49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
     </row>
@@ -1458,9 +1512,15 @@
       <c r="E50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="F50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
     </row>
@@ -1507,9 +1567,15 @@
       <c r="E52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="F52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
     </row>
@@ -1524,9 +1590,15 @@
       <c r="E53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="F53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
     </row>
@@ -1541,9 +1613,15 @@
       <c r="E54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
     </row>
@@ -1558,9 +1636,15 @@
       <c r="E55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="F55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
     </row>
@@ -1575,9 +1659,15 @@
       <c r="E56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
     </row>
@@ -1624,9 +1714,15 @@
       <c r="E58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
     </row>
@@ -1641,9 +1737,15 @@
       <c r="E59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="F59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
     </row>
@@ -1658,9 +1760,15 @@
       <c r="E60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="F60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
     </row>
@@ -1675,9 +1783,15 @@
       <c r="E61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="F61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
     </row>
@@ -1692,9 +1806,15 @@
       <c r="E62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
     </row>
@@ -1741,9 +1861,15 @@
       <c r="E64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
     </row>
@@ -1758,9 +1884,15 @@
       <c r="E65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I65" s="14"/>
       <c r="J65" s="15"/>
     </row>
@@ -1775,9 +1907,15 @@
       <c r="E66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="F66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
     </row>
@@ -1792,9 +1930,15 @@
       <c r="E67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
     </row>
@@ -1809,9 +1953,15 @@
       <c r="E68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="F68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I68" s="14"/>
       <c r="J68" s="15"/>
     </row>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="30">
   <si>
     <t>英単語</t>
   </si>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -248,7 +248,6 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
@@ -1282,8 +1281,10 @@
       <c r="H40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
+      <c r="I40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="14"/>
     </row>
     <row r="41">
       <c r="B41" s="6"/>
@@ -1305,8 +1306,10 @@
       <c r="H41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
+      <c r="I41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="14"/>
     </row>
     <row r="42">
       <c r="B42" s="6"/>
@@ -1328,8 +1331,10 @@
       <c r="H42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
+      <c r="I42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="14"/>
     </row>
     <row r="43">
       <c r="B43" s="6"/>
@@ -1351,8 +1356,10 @@
       <c r="H43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
+      <c r="I43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="14"/>
     </row>
     <row r="44">
       <c r="B44" s="7"/>
@@ -1374,8 +1381,10 @@
       <c r="H44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
+      <c r="I44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="14"/>
     </row>
     <row r="45">
       <c r="B45" s="11" t="s">
@@ -1399,10 +1408,10 @@
       <c r="H45" s="9">
         <v>0.0</v>
       </c>
-      <c r="I45" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="17" t="str">
+      <c r="I45" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="16" t="str">
         <f>sum(C45:I45)/7</f>
         <v>9%</v>
       </c>
@@ -1429,8 +1438,10 @@
       <c r="H46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
+      <c r="I46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="14"/>
     </row>
     <row r="47">
       <c r="B47" s="6"/>
@@ -1452,8 +1463,10 @@
       <c r="H47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
+      <c r="I47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="14"/>
     </row>
     <row r="48">
       <c r="B48" s="6"/>
@@ -1475,8 +1488,10 @@
       <c r="H48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
+      <c r="I48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="14"/>
     </row>
     <row r="49">
       <c r="B49" s="6"/>
@@ -1498,8 +1513,10 @@
       <c r="H49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
+      <c r="I49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="14"/>
     </row>
     <row r="50">
       <c r="B50" s="7"/>
@@ -1521,8 +1538,10 @@
       <c r="H50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
+      <c r="I50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="14"/>
     </row>
     <row r="51">
       <c r="B51" s="11" t="s">
@@ -1546,10 +1565,10 @@
       <c r="H51" s="9">
         <v>0.0</v>
       </c>
-      <c r="I51" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="17" t="str">
+      <c r="I51" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="16" t="str">
         <f>sum(C51:I51)/7</f>
         <v>11%</v>
       </c>
@@ -1576,8 +1595,10 @@
       <c r="H52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
+      <c r="I52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="14"/>
     </row>
     <row r="53">
       <c r="B53" s="6"/>
@@ -1599,8 +1620,10 @@
       <c r="H53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
+      <c r="I53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="14"/>
     </row>
     <row r="54">
       <c r="B54" s="6"/>
@@ -1622,8 +1645,10 @@
       <c r="H54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
+      <c r="I54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="14"/>
     </row>
     <row r="55">
       <c r="B55" s="6"/>
@@ -1645,8 +1670,10 @@
       <c r="H55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
+      <c r="I55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="14"/>
     </row>
     <row r="56">
       <c r="B56" s="7"/>
@@ -1668,8 +1695,10 @@
       <c r="H56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
+      <c r="I56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="14"/>
     </row>
     <row r="57">
       <c r="B57" s="11" t="s">
@@ -1693,10 +1722,10 @@
       <c r="H57" s="9">
         <v>0.0</v>
       </c>
-      <c r="I57" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J57" s="17" t="str">
+      <c r="I57" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="16" t="str">
         <f>sum(C57:I57)/7</f>
         <v>3%</v>
       </c>
@@ -1723,8 +1752,10 @@
       <c r="H58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
+      <c r="I58" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="14"/>
     </row>
     <row r="59">
       <c r="B59" s="6"/>
@@ -1746,8 +1777,10 @@
       <c r="H59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
+      <c r="I59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="14"/>
     </row>
     <row r="60">
       <c r="B60" s="6"/>
@@ -1769,8 +1802,10 @@
       <c r="H60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
+      <c r="I60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="14"/>
     </row>
     <row r="61">
       <c r="B61" s="6"/>
@@ -1792,8 +1827,10 @@
       <c r="H61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
+      <c r="I61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="14"/>
     </row>
     <row r="62">
       <c r="B62" s="7"/>
@@ -1815,8 +1852,10 @@
       <c r="H62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
+      <c r="I62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="14"/>
     </row>
     <row r="63">
       <c r="B63" s="11" t="s">
@@ -1840,10 +1879,10 @@
       <c r="H63" s="9">
         <v>0.0</v>
       </c>
-      <c r="I63" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J63" s="17" t="str">
+      <c r="I63" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="16" t="str">
         <f>sum(C63:I63)/7</f>
         <v>9%</v>
       </c>
@@ -1870,8 +1909,10 @@
       <c r="H64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
+      <c r="I64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="14"/>
     </row>
     <row r="65">
       <c r="B65" s="6"/>
@@ -1893,8 +1934,10 @@
       <c r="H65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
+      <c r="I65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="14"/>
     </row>
     <row r="66">
       <c r="B66" s="6"/>
@@ -1916,8 +1959,10 @@
       <c r="H66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
+      <c r="I66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="14"/>
     </row>
     <row r="67">
       <c r="B67" s="6"/>
@@ -1939,8 +1984,10 @@
       <c r="H67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
+      <c r="I67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="14"/>
     </row>
     <row r="68">
       <c r="B68" s="7"/>
@@ -1962,11 +2009,13 @@
       <c r="H68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
+      <c r="I68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="14"/>
     </row>
     <row r="69">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C69" s="9">
@@ -1990,13 +2039,15 @@
       <c r="I69" s="9">
         <v>0.0</v>
       </c>
-      <c r="J69" s="17" t="str">
+      <c r="J69" s="16" t="str">
         <f>sum(C69:I69)/7</f>
         <v>20%</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B40:B44"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="B64:B68"/>
@@ -2004,8 +2055,6 @@
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B40:B44"/>
     <mergeCell ref="B46:B50"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="41">
   <si>
     <t>英単語</t>
   </si>
@@ -88,19 +88,52 @@
     <t>water</t>
   </si>
   <si>
-    <t>sushi</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>curry</t>
-  </si>
-  <si>
-    <t>coke</t>
-  </si>
-  <si>
-    <t>chocolate</t>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>×　(horse）</t>
+  </si>
+  <si>
+    <t>×　(salmon）</t>
+  </si>
+  <si>
+    <t>×　　〃</t>
+  </si>
+  <si>
+    <t>×　(horse)</t>
+  </si>
+  <si>
+    <t>○　(同時にwolf)</t>
+  </si>
+  <si>
+    <t>○　　　　〃</t>
+  </si>
+  <si>
+    <t>×　　　〃</t>
+  </si>
+  <si>
+    <t>○　(同時にhorse）</t>
+  </si>
+  <si>
+    <t>○　(同時にcow)</t>
+  </si>
+  <si>
+    <t>○　　　〃</t>
+  </si>
+  <si>
+    <t>○　(同時にcow）</t>
   </si>
 </sst>
 </file>
@@ -215,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -249,6 +282,9 @@
       <alignment/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
@@ -274,6 +310,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="18.57"/>
+    <col customWidth="1" min="6" max="6" width="19.71"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="s">
@@ -1215,11 +1255,11 @@
       </c>
       <c r="E38" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>4%</v>
+        <v>60%</v>
       </c>
       <c r="F38" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>4%</v>
       </c>
       <c r="G38" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1227,7 +1267,7 @@
       </c>
       <c r="H38" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>4%</v>
       </c>
       <c r="I38" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1270,20 +1310,18 @@
         <v>11</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I40" s="12"/>
       <c r="J40" s="14"/>
     </row>
     <row r="41">
@@ -1295,20 +1333,18 @@
         <v>11</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I41" s="12"/>
       <c r="J41" s="14"/>
     </row>
     <row r="42">
@@ -1326,14 +1362,12 @@
         <v>11</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I42" s="12"/>
       <c r="J42" s="14"/>
     </row>
     <row r="43">
@@ -1348,17 +1382,15 @@
         <v>11</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I43" s="12"/>
       <c r="J43" s="14"/>
     </row>
     <row r="44">
@@ -1370,20 +1402,18 @@
         <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I44" s="12"/>
       <c r="J44" s="14"/>
     </row>
     <row r="45">
@@ -1396,8 +1426,8 @@
       <c r="D45" s="9">
         <v>0.0</v>
       </c>
-      <c r="E45" s="9">
-        <v>0.0</v>
+      <c r="E45" s="15">
+        <v>0.6</v>
       </c>
       <c r="F45" s="9">
         <v>0.0</v>
@@ -1408,12 +1438,12 @@
       <c r="H45" s="9">
         <v>0.0</v>
       </c>
-      <c r="I45" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="16" t="str">
+      <c r="I45" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="17" t="str">
         <f>sum(C45:I45)/7</f>
-        <v>9%</v>
+        <v>17%</v>
       </c>
     </row>
     <row r="46">
@@ -1430,17 +1460,13 @@
         <v>11</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I46" s="12"/>
       <c r="J46" s="14"/>
     </row>
     <row r="47">
@@ -1455,17 +1481,13 @@
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I47" s="12"/>
       <c r="J47" s="14"/>
     </row>
     <row r="48">
@@ -1477,20 +1499,16 @@
         <v>11</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I48" s="12"/>
       <c r="J48" s="14"/>
     </row>
     <row r="49">
@@ -1505,17 +1523,13 @@
         <v>11</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I49" s="12"/>
       <c r="J49" s="14"/>
     </row>
     <row r="50">
@@ -1530,17 +1544,13 @@
         <v>11</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I50" s="12"/>
       <c r="J50" s="14"/>
     </row>
     <row r="51">
@@ -1553,8 +1563,8 @@
       <c r="D51" s="9">
         <v>0.0</v>
       </c>
-      <c r="E51" s="9">
-        <v>0.0</v>
+      <c r="E51" s="15">
+        <v>0.2</v>
       </c>
       <c r="F51" s="9">
         <v>0.0</v>
@@ -1562,15 +1572,15 @@
       <c r="G51" s="9">
         <v>0.0</v>
       </c>
-      <c r="H51" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I51" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="16" t="str">
+      <c r="H51" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="17" t="str">
         <f>sum(C51:I51)/7</f>
-        <v>11%</v>
+        <v>17%</v>
       </c>
     </row>
     <row r="52">
@@ -1584,20 +1594,16 @@
         <v>11</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I52" s="12"/>
       <c r="J52" s="14"/>
     </row>
     <row r="53">
@@ -1609,20 +1615,16 @@
         <v>11</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I53" s="12"/>
       <c r="J53" s="14"/>
     </row>
     <row r="54">
@@ -1634,20 +1636,16 @@
         <v>11</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I54" s="12"/>
       <c r="J54" s="14"/>
     </row>
     <row r="55">
@@ -1659,20 +1657,16 @@
         <v>11</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I55" s="12"/>
       <c r="J55" s="14"/>
     </row>
     <row r="56">
@@ -1684,20 +1678,16 @@
         <v>11</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I56" s="12"/>
       <c r="J56" s="14"/>
     </row>
     <row r="57">
@@ -1710,24 +1700,24 @@
       <c r="D57" s="9">
         <v>0.0</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="F57" s="15">
         <v>0.2</v>
       </c>
-      <c r="F57" s="9">
-        <v>0.0</v>
-      </c>
       <c r="G57" s="9">
         <v>0.0</v>
       </c>
       <c r="H57" s="9">
         <v>0.0</v>
       </c>
-      <c r="I57" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J57" s="16" t="str">
+      <c r="I57" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="17" t="str">
         <f>sum(C57:I57)/7</f>
-        <v>3%</v>
+        <v>17%</v>
       </c>
     </row>
     <row r="58">
@@ -1744,17 +1734,13 @@
         <v>11</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I58" s="12"/>
       <c r="J58" s="14"/>
     </row>
     <row r="59">
@@ -1763,23 +1749,19 @@
         <v>11</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I59" s="12"/>
       <c r="J59" s="14"/>
     </row>
     <row r="60">
@@ -1791,20 +1773,16 @@
         <v>11</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I60" s="12"/>
       <c r="J60" s="14"/>
     </row>
     <row r="61">
@@ -1816,20 +1794,16 @@
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I61" s="12"/>
       <c r="J61" s="14"/>
     </row>
     <row r="62">
@@ -1841,20 +1815,16 @@
         <v>11</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I62" s="12"/>
       <c r="J62" s="14"/>
     </row>
     <row r="63">
@@ -1867,8 +1837,8 @@
       <c r="D63" s="9">
         <v>0.2</v>
       </c>
-      <c r="E63" s="9">
-        <v>0.0</v>
+      <c r="E63" s="15">
+        <v>0.8</v>
       </c>
       <c r="F63" s="9">
         <v>0.0</v>
@@ -1879,12 +1849,12 @@
       <c r="H63" s="9">
         <v>0.0</v>
       </c>
-      <c r="I63" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J63" s="16" t="str">
+      <c r="I63" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="17" t="str">
         <f>sum(C63:I63)/7</f>
-        <v>9%</v>
+        <v>20%</v>
       </c>
     </row>
     <row r="64">
@@ -1901,17 +1871,13 @@
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I64" s="12"/>
       <c r="J64" s="14"/>
     </row>
     <row r="65">
@@ -1923,20 +1889,16 @@
         <v>11</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I65" s="12"/>
       <c r="J65" s="14"/>
     </row>
     <row r="66">
@@ -1951,17 +1913,13 @@
         <v>11</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I66" s="12"/>
       <c r="J66" s="14"/>
     </row>
     <row r="67">
@@ -1973,20 +1931,16 @@
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I67" s="12"/>
       <c r="J67" s="14"/>
     </row>
     <row r="68">
@@ -2001,21 +1955,17 @@
         <v>11</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I68" s="12"/>
       <c r="J68" s="14"/>
     </row>
     <row r="69">
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C69" s="9">
@@ -2024,8 +1974,8 @@
       <c r="D69" s="9">
         <v>0.8</v>
       </c>
-      <c r="E69" s="9">
-        <v>0.0</v>
+      <c r="E69" s="15">
+        <v>0.4</v>
       </c>
       <c r="F69" s="9">
         <v>0.0</v>
@@ -2039,9 +1989,9 @@
       <c r="I69" s="9">
         <v>0.0</v>
       </c>
-      <c r="J69" s="16" t="str">
+      <c r="J69" s="17" t="str">
         <f>sum(C69:I69)/7</f>
-        <v>20%</v>
+        <v>26%</v>
       </c>
     </row>
   </sheetData>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="52">
   <si>
     <t>英単語</t>
   </si>
@@ -109,15 +109,39 @@
     <t>×　(salmon）</t>
   </si>
   <si>
+    <t>×　(lion）</t>
+  </si>
+  <si>
+    <t>×　〃</t>
+  </si>
+  <si>
     <t>×　　〃</t>
   </si>
   <si>
+    <t>×　(cat）</t>
+  </si>
+  <si>
+    <t>×　(bear)</t>
+  </si>
+  <si>
     <t>×　(horse)</t>
   </si>
   <si>
+    <t>○　（同時にhorse）</t>
+  </si>
+  <si>
+    <t>×　(cow)</t>
+  </si>
+  <si>
+    <t>×　(cow）</t>
+  </si>
+  <si>
     <t>○　(同時にwolf)</t>
   </si>
   <si>
+    <t>×　(cow,wolf）</t>
+  </si>
+  <si>
     <t>○　　　　〃</t>
   </si>
   <si>
@@ -127,13 +151,22 @@
     <t>○　(同時にhorse）</t>
   </si>
   <si>
+    <t>×　(cat)</t>
+  </si>
+  <si>
     <t>○　(同時にcow)</t>
   </si>
   <si>
     <t>○　　　〃</t>
   </si>
   <si>
+    <t>×　（giraffe)</t>
+  </si>
+  <si>
     <t>○　(同時にcow）</t>
+  </si>
+  <si>
+    <t>×　（giraffe,candy)</t>
   </si>
 </sst>
 </file>
@@ -313,6 +346,8 @@
   <cols>
     <col customWidth="1" min="5" max="5" width="18.57"/>
     <col customWidth="1" min="6" max="6" width="19.71"/>
+    <col customWidth="1" min="7" max="7" width="19.86"/>
+    <col customWidth="1" min="9" max="9" width="21.0"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1263,7 +1298,7 @@
       </c>
       <c r="G38" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>4%</v>
       </c>
       <c r="H38" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1321,7 +1356,9 @@
       <c r="H40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="12"/>
+      <c r="I40" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="J40" s="14"/>
     </row>
     <row r="41">
@@ -1336,15 +1373,17 @@
         <v>12</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="J41" s="14"/>
     </row>
     <row r="42">
@@ -1359,15 +1398,17 @@
         <v>11</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="12"/>
       <c r="J42" s="14"/>
     </row>
     <row r="43">
@@ -1385,12 +1426,14 @@
         <v>31</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="J43" s="14"/>
     </row>
     <row r="44">
@@ -1408,12 +1451,14 @@
         <v>11</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="J44" s="14"/>
     </row>
     <row r="45">
@@ -1460,13 +1505,17 @@
         <v>11</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="12"/>
+      <c r="I46" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="J46" s="14"/>
     </row>
     <row r="47">
@@ -1481,13 +1530,17 @@
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="12"/>
+      <c r="I47" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="J47" s="14"/>
     </row>
     <row r="48">
@@ -1502,13 +1555,17 @@
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="J48" s="14"/>
     </row>
     <row r="49">
@@ -1523,13 +1580,17 @@
         <v>11</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="J49" s="14"/>
     </row>
     <row r="50">
@@ -1544,13 +1605,17 @@
         <v>11</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="J50" s="14"/>
     </row>
     <row r="51">
@@ -1569,8 +1634,8 @@
       <c r="F51" s="9">
         <v>0.0</v>
       </c>
-      <c r="G51" s="9">
-        <v>0.0</v>
+      <c r="G51" s="15">
+        <v>0.2</v>
       </c>
       <c r="H51" s="15">
         <v>0.2</v>
@@ -1580,7 +1645,7 @@
       </c>
       <c r="J51" s="17" t="str">
         <f>sum(C51:I51)/7</f>
-        <v>17%</v>
+        <v>20%</v>
       </c>
     </row>
     <row r="52">
@@ -1594,16 +1659,20 @@
         <v>11</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H52" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I52" s="12"/>
+      <c r="I52" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="J52" s="14"/>
     </row>
     <row r="53">
@@ -1615,16 +1684,20 @@
         <v>11</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H53" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="J53" s="14"/>
     </row>
     <row r="54">
@@ -1636,16 +1709,20 @@
         <v>11</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="J54" s="14"/>
     </row>
     <row r="55">
@@ -1657,16 +1734,20 @@
         <v>11</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H55" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="J55" s="14"/>
     </row>
     <row r="56">
@@ -1678,16 +1759,20 @@
         <v>11</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="J56" s="14"/>
     </row>
     <row r="57">
@@ -1736,11 +1821,15 @@
       <c r="F58" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I58" s="12"/>
+      <c r="I58" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J58" s="14"/>
     </row>
     <row r="59">
@@ -1752,16 +1841,20 @@
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H59" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J59" s="14"/>
     </row>
     <row r="60">
@@ -1773,16 +1866,20 @@
         <v>11</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H60" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J60" s="14"/>
     </row>
     <row r="61">
@@ -1794,16 +1891,20 @@
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H61" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J61" s="14"/>
     </row>
     <row r="62">
@@ -1815,16 +1916,20 @@
         <v>11</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H62" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J62" s="14"/>
     </row>
     <row r="63">
@@ -1873,11 +1978,15 @@
       <c r="F64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H64" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I64" s="12"/>
+      <c r="I64" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="J64" s="14"/>
     </row>
     <row r="65">
@@ -1889,16 +1998,20 @@
         <v>11</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H65" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="J65" s="14"/>
     </row>
     <row r="66">
@@ -1913,13 +2026,17 @@
         <v>11</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H66" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J66" s="14"/>
     </row>
     <row r="67">
@@ -1931,16 +2048,20 @@
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H67" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J67" s="14"/>
     </row>
     <row r="68">
@@ -1955,13 +2076,17 @@
         <v>11</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J68" s="14"/>
     </row>
     <row r="69">

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="56">
   <si>
     <t>英単語</t>
   </si>
@@ -46,10 +46,16 @@
     <t>最適化</t>
   </si>
   <si>
+    <t>×　（cow）</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
     <t>×</t>
   </si>
   <si>
-    <t>○</t>
+    <t>×　(wolf)</t>
   </si>
   <si>
     <t>最適化確率</t>
@@ -58,6 +64,12 @@
     <t>速さ2倍</t>
   </si>
   <si>
+    <t>×　(wolf）</t>
+  </si>
+  <si>
+    <t>×　(water）</t>
+  </si>
+  <si>
     <t>2倍確率</t>
   </si>
   <si>
@@ -70,6 +82,12 @@
     <t>音量2倍</t>
   </si>
   <si>
+    <t>×　(lion）</t>
+  </si>
+  <si>
+    <t>×　(cow)</t>
+  </si>
+  <si>
     <t>音量確率</t>
   </si>
   <si>
@@ -109,9 +127,6 @@
     <t>×　(salmon）</t>
   </si>
   <si>
-    <t>×　(lion）</t>
-  </si>
-  <si>
     <t>×　〃</t>
   </si>
   <si>
@@ -128,9 +143,6 @@
   </si>
   <si>
     <t>○　（同時にhorse）</t>
-  </si>
-  <si>
-    <t>×　(cow)</t>
   </si>
   <si>
     <t>×　(cow）</t>
@@ -308,6 +320,9 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
@@ -315,9 +330,6 @@
       <alignment/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
@@ -360,28 +372,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" ref="C4:J4" si="1">sum(C10,C17,C23,C29,C35)/5</f>
-        <v>16%</v>
+        <f t="shared" ref="C4:J4" si="1">sum(C11,C17,C23,C29,C35)/5</f>
+        <v>28%</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>76%</v>
+        <v>96%</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>24%</v>
+        <v>32%</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>12%</v>
+        <v>16%</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>20%</v>
+        <v>32%</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0%</v>
+        <v>4%</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -432,24 +444,14 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7">
       <c r="B7" s="6"/>
@@ -459,24 +461,14 @@
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -489,51 +481,31 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9">
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
@@ -544,28 +516,18 @@
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11">
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9">
         <v>0.0</v>
@@ -598,147 +560,87 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13">
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14">
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15">
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16">
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.0</v>
+        <v>19</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.6</v>
       </c>
       <c r="D17" s="9">
         <v>1.0</v>
@@ -763,12 +665,12 @@
       </c>
       <c r="K17" s="10" t="str">
         <f>sum(C17:J17)/8</f>
-        <v>18%</v>
+        <v>25%</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -779,48 +681,28 @@
       <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="6"/>
@@ -833,21 +715,11 @@
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21">
       <c r="B21" s="6"/>
@@ -860,21 +732,11 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22">
       <c r="B22" s="7"/>
@@ -887,25 +749,15 @@
       <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23">
       <c r="B23" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" s="9">
         <v>0.8</v>
@@ -938,144 +790,84 @@
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25">
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26">
       <c r="B26" s="6"/>
       <c r="C26" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27">
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28">
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29">
       <c r="B29" s="11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C29" s="9">
         <v>0.0</v>
@@ -1108,144 +900,84 @@
     </row>
     <row r="30">
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31">
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32">
       <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33">
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34">
       <c r="B34" s="7"/>
       <c r="C34" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35">
       <c r="B35" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C35" s="9">
         <v>0.0</v>
@@ -1278,7 +1010,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C38" s="10" t="str">
         <f t="shared" ref="C38:I38" si="2">sum(C45,C51,C57,C63,C69)/5</f>
@@ -1312,27 +1044,27 @@
     <row r="39">
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="14"/>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
@@ -1342,24 +1074,24 @@
         <v>12</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="15"/>
     </row>
     <row r="41">
       <c r="B41" s="6"/>
@@ -1367,49 +1099,49 @@
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="15"/>
     </row>
     <row r="42">
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="15"/>
     </row>
     <row r="43">
       <c r="B43" s="6"/>
@@ -1417,53 +1149,53 @@
         <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J43" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="15"/>
     </row>
     <row r="44">
       <c r="B44" s="7"/>
       <c r="C44" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="15"/>
     </row>
     <row r="45">
       <c r="B45" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" s="9">
         <v>0.6</v>
@@ -1471,7 +1203,7 @@
       <c r="D45" s="9">
         <v>0.0</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="12">
         <v>0.6</v>
       </c>
       <c r="F45" s="9">
@@ -1493,30 +1225,30 @@
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J46" s="14"/>
+      <c r="I46" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="15"/>
     </row>
     <row r="47">
       <c r="B47" s="6"/>
@@ -1524,24 +1256,24 @@
         <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J47" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="15"/>
     </row>
     <row r="48">
       <c r="B48" s="6"/>
@@ -1549,49 +1281,49 @@
         <v>12</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="15"/>
     </row>
     <row r="49">
       <c r="B49" s="6"/>
       <c r="C49" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="15"/>
     </row>
     <row r="50">
       <c r="B50" s="7"/>
@@ -1599,28 +1331,28 @@
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="15"/>
     </row>
     <row r="51">
       <c r="B51" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C51" s="9">
         <v>0.8</v>
@@ -1628,16 +1360,16 @@
       <c r="D51" s="9">
         <v>0.0</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="12">
         <v>0.2</v>
       </c>
       <c r="F51" s="9">
         <v>0.0</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="12">
         <v>0.2</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="12">
         <v>0.2</v>
       </c>
       <c r="I51" s="16">
@@ -1650,134 +1382,134 @@
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J52" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="15"/>
     </row>
     <row r="53">
       <c r="B53" s="6"/>
       <c r="C53" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J53" s="14"/>
+      <c r="J53" s="15"/>
     </row>
     <row r="54">
       <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J54" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="15"/>
     </row>
     <row r="55">
       <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J55" s="15"/>
     </row>
     <row r="56">
       <c r="B56" s="7"/>
       <c r="C56" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J56" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="15"/>
     </row>
     <row r="57">
       <c r="B57" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C57" s="9">
         <v>0.0</v>
@@ -1785,10 +1517,10 @@
       <c r="D57" s="9">
         <v>0.0</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="12">
         <v>1.0</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="12">
         <v>0.2</v>
       </c>
       <c r="G57" s="9">
@@ -1807,80 +1539,80 @@
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J58" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58" s="15"/>
     </row>
     <row r="59">
       <c r="B59" s="6"/>
       <c r="C59" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J59" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" s="15"/>
     </row>
     <row r="60">
       <c r="B60" s="6"/>
       <c r="C60" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G60" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J60" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J60" s="15"/>
     </row>
     <row r="61">
       <c r="B61" s="6"/>
@@ -1891,21 +1623,21 @@
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G61" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J61" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J61" s="15"/>
     </row>
     <row r="62">
       <c r="B62" s="7"/>
@@ -1913,28 +1645,28 @@
         <v>12</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J62" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J62" s="15"/>
     </row>
     <row r="63">
       <c r="B63" s="11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C63" s="9">
         <v>0.4</v>
@@ -1942,7 +1674,7 @@
       <c r="D63" s="9">
         <v>0.2</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="12">
         <v>0.8</v>
       </c>
       <c r="F63" s="9">
@@ -1964,55 +1696,55 @@
     </row>
     <row r="64">
       <c r="B64" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J64" s="14"/>
+      <c r="I64" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J64" s="15"/>
     </row>
     <row r="65">
       <c r="B65" s="6"/>
       <c r="C65" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J65" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65" s="15"/>
     </row>
     <row r="66">
       <c r="B66" s="6"/>
@@ -2023,21 +1755,21 @@
         <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J66" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J66" s="15"/>
     </row>
     <row r="67">
       <c r="B67" s="6"/>
@@ -2048,21 +1780,21 @@
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J67" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" s="15"/>
     </row>
     <row r="68">
       <c r="B68" s="7"/>
@@ -2073,25 +1805,25 @@
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J68" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="15"/>
     </row>
     <row r="69">
       <c r="B69" s="18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C69" s="9">
         <v>0.6</v>
@@ -2099,7 +1831,7 @@
       <c r="D69" s="9">
         <v>0.8</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="12">
         <v>0.4</v>
       </c>
       <c r="F69" s="9">
@@ -2121,15 +1853,15 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B18:B22"/>
     <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B46:B50"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="62">
   <si>
     <t>英単語</t>
   </si>
@@ -52,9 +52,21 @@
     <t>○</t>
   </si>
   <si>
+    <t>×　wolf</t>
+  </si>
+  <si>
     <t>×</t>
   </si>
   <si>
+    <t>×　〃</t>
+  </si>
+  <si>
+    <t>×　(wolf）</t>
+  </si>
+  <si>
+    <t>×　horse</t>
+  </si>
+  <si>
     <t>×　(wolf)</t>
   </si>
   <si>
@@ -64,7 +76,16 @@
     <t>速さ2倍</t>
   </si>
   <si>
-    <t>×　(wolf）</t>
+    <t>×　(horse）</t>
+  </si>
+  <si>
+    <t>×　認識せず</t>
+  </si>
+  <si>
+    <t>×　　〃</t>
+  </si>
+  <si>
+    <t>×　(lion）</t>
   </si>
   <si>
     <t>×　(water）</t>
@@ -76,24 +97,30 @@
     <t>速さ1/2</t>
   </si>
   <si>
+    <t>×　hamburger</t>
+  </si>
+  <si>
     <t>1/2確率</t>
   </si>
   <si>
     <t>音量2倍</t>
   </si>
   <si>
-    <t>×　(lion）</t>
-  </si>
-  <si>
     <t>×　(cow)</t>
   </si>
   <si>
+    <t>○　同時でwater</t>
+  </si>
+  <si>
     <t>音量確率</t>
   </si>
   <si>
     <t>音程変化</t>
   </si>
   <si>
+    <t>×　（wolf）</t>
+  </si>
+  <si>
     <t>音程確率</t>
   </si>
   <si>
@@ -121,16 +148,7 @@
     <t>yogurt</t>
   </si>
   <si>
-    <t>×　(horse）</t>
-  </si>
-  <si>
     <t>×　(salmon）</t>
-  </si>
-  <si>
-    <t>×　〃</t>
-  </si>
-  <si>
-    <t>×　　〃</t>
   </si>
   <si>
     <t>×　(cat）</t>
@@ -316,12 +334,12 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
@@ -381,11 +399,11 @@
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>32%</v>
+        <v>60%</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>16%</v>
+        <v>8%</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -444,10 +462,14 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -461,8 +483,12 @@
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
@@ -481,8 +507,12 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
@@ -493,15 +523,19 @@
     <row r="9">
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -516,8 +550,12 @@
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
@@ -527,7 +565,7 @@
     </row>
     <row r="11">
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9">
         <v>0.0</v>
@@ -535,11 +573,11 @@
       <c r="D11" s="9">
         <v>1.0</v>
       </c>
-      <c r="E11" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.2</v>
+      <c r="E11" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.0</v>
       </c>
       <c r="G11" s="9">
         <v>0.6</v>
@@ -553,14 +591,14 @@
       <c r="J11" s="9">
         <v>0.0</v>
       </c>
-      <c r="K11" s="10" t="str">
+      <c r="K11" s="11" t="str">
         <f>sum(C11:J11)/8</f>
-        <v>30%</v>
+        <v>33%</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -568,8 +606,12 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -583,8 +625,12 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -593,13 +639,17 @@
     <row r="14">
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -613,8 +663,12 @@
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -623,23 +677,27 @@
     <row r="16">
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17">
-      <c r="B17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10">
         <v>0.6</v>
       </c>
       <c r="D17" s="9">
@@ -663,14 +721,14 @@
       <c r="J17" s="9">
         <v>0.0</v>
       </c>
-      <c r="K17" s="10" t="str">
+      <c r="K17" s="11" t="str">
         <f>sum(C17:J17)/8</f>
         <v>25%</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -681,7 +739,9 @@
       <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -690,15 +750,17 @@
     <row r="19">
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -715,7 +777,9 @@
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -732,7 +796,9 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -749,15 +815,17 @@
       <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23">
-      <c r="B23" s="11" t="s">
-        <v>21</v>
+      <c r="B23" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="9">
         <v>0.8</v>
@@ -768,8 +836,8 @@
       <c r="E23" s="9">
         <v>0.8</v>
       </c>
-      <c r="F23" s="9">
-        <v>0.4</v>
+      <c r="F23" s="10">
+        <v>0.0</v>
       </c>
       <c r="G23" s="9">
         <v>0.0</v>
@@ -783,23 +851,27 @@
       <c r="J23" s="9">
         <v>0.4</v>
       </c>
-      <c r="K23" s="10" t="str">
+      <c r="K23" s="11" t="str">
         <f>sum(C23:J23)/8</f>
-        <v>43%</v>
+        <v>38%</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -808,13 +880,17 @@
     <row r="25">
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -823,13 +899,17 @@
     <row r="26">
       <c r="B26" s="6"/>
       <c r="C26" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -838,13 +918,17 @@
     <row r="27">
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -853,21 +937,25 @@
     <row r="28">
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29">
-      <c r="B29" s="11" t="s">
-        <v>25</v>
+      <c r="B29" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="9">
         <v>0.0</v>
@@ -875,8 +963,8 @@
       <c r="D29" s="9">
         <v>0.8</v>
       </c>
-      <c r="E29" s="9">
-        <v>0.4</v>
+      <c r="E29" s="10">
+        <v>0.8</v>
       </c>
       <c r="F29" s="9">
         <v>0.2</v>
@@ -893,23 +981,27 @@
       <c r="J29" s="9">
         <v>0.4</v>
       </c>
-      <c r="K29" s="10" t="str">
+      <c r="K29" s="11" t="str">
         <f>sum(C29:J29)/8</f>
-        <v>25%</v>
+        <v>30%</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -918,13 +1010,17 @@
     <row r="31">
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -933,13 +1029,17 @@
     <row r="32">
       <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -948,13 +1048,17 @@
     <row r="33">
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -968,16 +1072,20 @@
       <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35">
-      <c r="B35" s="11" t="s">
-        <v>27</v>
+      <c r="B35" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="9">
         <v>0.0</v>
@@ -985,11 +1093,11 @@
       <c r="D35" s="9">
         <v>1.0</v>
       </c>
-      <c r="E35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0.0</v>
+      <c r="E35" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.2</v>
       </c>
       <c r="G35" s="9">
         <v>0.4</v>
@@ -1003,40 +1111,40 @@
       <c r="J35" s="9">
         <v>0.2</v>
       </c>
-      <c r="K35" s="10" t="str">
+      <c r="K35" s="11" t="str">
         <f>sum(C35:J35)/8</f>
-        <v>20%</v>
+        <v>30%</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="10" t="str">
+        <v>37</v>
+      </c>
+      <c r="C38" s="11" t="str">
         <f t="shared" ref="C38:I38" si="2">sum(C45,C51,C57,C63,C69)/5</f>
         <v>48%</v>
       </c>
-      <c r="D38" s="10" t="str">
+      <c r="D38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>20%</v>
       </c>
-      <c r="E38" s="10" t="str">
+      <c r="E38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>60%</v>
       </c>
-      <c r="F38" s="10" t="str">
+      <c r="F38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>4%</v>
       </c>
-      <c r="G38" s="10" t="str">
+      <c r="G38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>4%</v>
       </c>
-      <c r="H38" s="10" t="str">
+      <c r="H38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>4%</v>
       </c>
-      <c r="I38" s="10" t="str">
+      <c r="I38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>0%</v>
       </c>
@@ -1044,25 +1152,25 @@
     <row r="39">
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J39" s="14"/>
     </row>
@@ -1074,22 +1182,22 @@
         <v>12</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J40" s="15"/>
     </row>
@@ -1099,47 +1207,47 @@
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J41" s="15"/>
     </row>
     <row r="42">
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J42" s="15"/>
     </row>
@@ -1149,53 +1257,53 @@
         <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J43" s="15"/>
     </row>
     <row r="44">
       <c r="B44" s="7"/>
       <c r="C44" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J44" s="15"/>
     </row>
     <row r="45">
-      <c r="B45" s="11" t="s">
-        <v>15</v>
+      <c r="B45" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C45" s="9">
         <v>0.6</v>
@@ -1203,7 +1311,7 @@
       <c r="D45" s="9">
         <v>0.0</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="10">
         <v>0.6</v>
       </c>
       <c r="F45" s="9">
@@ -1225,28 +1333,28 @@
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J46" s="15"/>
     </row>
@@ -1256,22 +1364,22 @@
         <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J47" s="15"/>
     </row>
@@ -1281,47 +1389,47 @@
         <v>12</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J48" s="15"/>
     </row>
     <row r="49">
       <c r="B49" s="6"/>
       <c r="C49" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J49" s="15"/>
     </row>
@@ -1331,28 +1439,28 @@
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J50" s="15"/>
     </row>
     <row r="51">
-      <c r="B51" s="11" t="s">
-        <v>19</v>
+      <c r="B51" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C51" s="9">
         <v>0.8</v>
@@ -1360,16 +1468,16 @@
       <c r="D51" s="9">
         <v>0.0</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="10">
         <v>0.2</v>
       </c>
       <c r="F51" s="9">
         <v>0.0</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="10">
         <v>0.2</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="10">
         <v>0.2</v>
       </c>
       <c r="I51" s="16">
@@ -1382,134 +1490,134 @@
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="I52" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J52" s="15"/>
     </row>
     <row r="53">
       <c r="B53" s="6"/>
       <c r="C53" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J53" s="15"/>
     </row>
     <row r="54">
       <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J54" s="15"/>
     </row>
     <row r="55">
       <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J55" s="15"/>
     </row>
     <row r="56">
       <c r="B56" s="7"/>
       <c r="C56" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J56" s="15"/>
     </row>
     <row r="57">
-      <c r="B57" s="11" t="s">
-        <v>21</v>
+      <c r="B57" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C57" s="9">
         <v>0.0</v>
@@ -1517,10 +1625,10 @@
       <c r="D57" s="9">
         <v>0.0</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="10">
         <v>1.0</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="10">
         <v>0.2</v>
       </c>
       <c r="G57" s="9">
@@ -1539,78 +1647,78 @@
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J58" s="15"/>
     </row>
     <row r="59">
       <c r="B59" s="6"/>
       <c r="C59" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J59" s="15"/>
     </row>
     <row r="60">
       <c r="B60" s="6"/>
       <c r="C60" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J60" s="15"/>
     </row>
@@ -1623,19 +1731,19 @@
         <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J61" s="15"/>
     </row>
@@ -1645,28 +1753,28 @@
         <v>12</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J62" s="15"/>
     </row>
     <row r="63">
-      <c r="B63" s="11" t="s">
-        <v>25</v>
+      <c r="B63" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C63" s="9">
         <v>0.4</v>
@@ -1674,7 +1782,7 @@
       <c r="D63" s="9">
         <v>0.2</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="10">
         <v>0.8</v>
       </c>
       <c r="F63" s="9">
@@ -1696,53 +1804,53 @@
     </row>
     <row r="64">
       <c r="B64" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J64" s="15"/>
     </row>
     <row r="65">
       <c r="B65" s="6"/>
       <c r="C65" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="G65" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J65" s="15"/>
     </row>
@@ -1755,19 +1863,19 @@
         <v>12</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="H66" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J66" s="15"/>
     </row>
@@ -1780,19 +1888,19 @@
         <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="H67" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J67" s="15"/>
     </row>
@@ -1805,25 +1913,25 @@
         <v>12</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J68" s="15"/>
     </row>
     <row r="69">
       <c r="B69" s="18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C69" s="9">
         <v>0.6</v>
@@ -1831,7 +1939,7 @@
       <c r="D69" s="9">
         <v>0.8</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="10">
         <v>0.4</v>
       </c>
       <c r="F69" s="9">

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="70">
   <si>
     <t>英単語</t>
   </si>
   <si>
+    <t>合計</t>
+  </si>
+  <si>
     <t>動物</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>×　(wolf)</t>
   </si>
   <si>
+    <t>○　同時にtiger</t>
+  </si>
+  <si>
     <t>最適化確率</t>
   </si>
   <si>
@@ -100,25 +106,43 @@
     <t>×　hamburger</t>
   </si>
   <si>
+    <t>×　horse　salmon</t>
+  </si>
+  <si>
     <t>1/2確率</t>
   </si>
   <si>
     <t>音量2倍</t>
   </si>
   <si>
+    <t>×　cow</t>
+  </si>
+  <si>
     <t>×　(cow)</t>
   </si>
   <si>
     <t>○　同時でwater</t>
   </si>
   <si>
+    <t>×　cow　horse</t>
+  </si>
+  <si>
     <t>音量確率</t>
   </si>
   <si>
     <t>音程変化</t>
   </si>
   <si>
+    <t>×　tiger</t>
+  </si>
+  <si>
     <t>×　（wolf）</t>
+  </si>
+  <si>
+    <t>×　giraffe　horse</t>
+  </si>
+  <si>
+    <t>×　horse　candy</t>
   </si>
   <si>
     <t>音程確率</t>
@@ -377,6 +401,7 @@
     <col customWidth="1" min="5" max="5" width="18.57"/>
     <col customWidth="1" min="6" max="6" width="19.71"/>
     <col customWidth="1" min="7" max="7" width="19.86"/>
+    <col customWidth="1" min="8" max="8" width="17.43"/>
     <col customWidth="1" min="9" max="9" width="21.0"/>
   </cols>
   <sheetData>
@@ -385,9 +410,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ref="C4:J4" si="1">sum(C11,C17,C23,C29,C35)/5</f>
@@ -407,11 +437,11 @@
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>32%</v>
+        <v>16%</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>4%</v>
+        <v>24%</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -421,32 +451,36 @@
         <f t="shared" si="1"/>
         <v>20%</v>
       </c>
+      <c r="L4" s="2" t="str">
+        <f>sum(C4:J4)/8</f>
+        <v>32%</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -454,45 +488,49 @@
     </row>
     <row r="6">
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7">
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="1"/>
@@ -502,42 +540,46 @@
     <row r="8">
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9">
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="1"/>
@@ -545,27 +587,29 @@
     <row r="10">
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11">
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9">
         <v>0.0</v>
@@ -582,8 +626,8 @@
       <c r="G11" s="9">
         <v>0.6</v>
       </c>
-      <c r="H11" s="9">
-        <v>0.2</v>
+      <c r="H11" s="10">
+        <v>0.6</v>
       </c>
       <c r="I11" s="9">
         <v>0.0</v>
@@ -593,109 +637,129 @@
       </c>
       <c r="K11" s="11" t="str">
         <f>sum(C11:J11)/8</f>
-        <v>33%</v>
+        <v>38%</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13">
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14">
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15">
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16">
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="10">
         <v>0.6</v>
@@ -709,8 +773,8 @@
       <c r="F17" s="9">
         <v>0.0</v>
       </c>
-      <c r="G17" s="9">
-        <v>0.4</v>
+      <c r="G17" s="10">
+        <v>0.0</v>
       </c>
       <c r="H17" s="9">
         <v>0.0</v>
@@ -723,109 +787,129 @@
       </c>
       <c r="K17" s="11" t="str">
         <f>sum(C17:J17)/8</f>
-        <v>25%</v>
+        <v>20%</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21">
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22">
       <c r="B22" s="7"/>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" s="9">
         <v>0.8</v>
@@ -842,8 +926,8 @@
       <c r="G23" s="9">
         <v>0.0</v>
       </c>
-      <c r="H23" s="9">
-        <v>0.0</v>
+      <c r="H23" s="10">
+        <v>0.4</v>
       </c>
       <c r="I23" s="9">
         <v>0.0</v>
@@ -853,109 +937,129 @@
       </c>
       <c r="K23" s="11" t="str">
         <f>sum(C23:J23)/8</f>
-        <v>38%</v>
+        <v>43%</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25">
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26">
       <c r="B26" s="6"/>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27">
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28">
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29">
       <c r="B29" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C29" s="9">
         <v>0.0</v>
@@ -972,8 +1076,8 @@
       <c r="G29" s="9">
         <v>0.2</v>
       </c>
-      <c r="H29" s="9">
-        <v>0.0</v>
+      <c r="H29" s="10">
+        <v>0.2</v>
       </c>
       <c r="I29" s="9">
         <v>0.0</v>
@@ -983,109 +1087,129 @@
       </c>
       <c r="K29" s="11" t="str">
         <f>sum(C29:J29)/8</f>
-        <v>30%</v>
+        <v>33%</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31">
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32">
       <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33">
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34">
       <c r="B34" s="7"/>
       <c r="C34" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35">
       <c r="B35" s="12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C35" s="9">
         <v>0.0</v>
@@ -1099,8 +1223,8 @@
       <c r="F35" s="10">
         <v>0.2</v>
       </c>
-      <c r="G35" s="9">
-        <v>0.4</v>
+      <c r="G35" s="10">
+        <v>0.0</v>
       </c>
       <c r="H35" s="9">
         <v>0.0</v>
@@ -1113,12 +1237,12 @@
       </c>
       <c r="K35" s="11" t="str">
         <f>sum(C35:J35)/8</f>
-        <v>30%</v>
+        <v>25%</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C38" s="11" t="str">
         <f t="shared" ref="C38:I38" si="2">sum(C45,C51,C57,C63,C69)/5</f>
@@ -1152,158 +1276,158 @@
     <row r="39">
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J39" s="14"/>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J40" s="15"/>
     </row>
     <row r="41">
       <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J41" s="15"/>
     </row>
     <row r="42">
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J42" s="15"/>
     </row>
     <row r="43">
       <c r="B43" s="6"/>
       <c r="C43" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J43" s="15"/>
     </row>
     <row r="44">
       <c r="B44" s="7"/>
       <c r="C44" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J44" s="15"/>
     </row>
     <row r="45">
       <c r="B45" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C45" s="9">
         <v>0.6</v>
@@ -1333,134 +1457,134 @@
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J46" s="15"/>
     </row>
     <row r="47">
       <c r="B47" s="6"/>
       <c r="C47" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J47" s="15"/>
     </row>
     <row r="48">
       <c r="B48" s="6"/>
       <c r="C48" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J48" s="15"/>
     </row>
     <row r="49">
       <c r="B49" s="6"/>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J49" s="15"/>
     </row>
     <row r="50">
       <c r="B50" s="7"/>
       <c r="C50" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J50" s="15"/>
     </row>
     <row r="51">
       <c r="B51" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C51" s="9">
         <v>0.8</v>
@@ -1490,134 +1614,134 @@
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J52" s="15"/>
     </row>
     <row r="53">
       <c r="B53" s="6"/>
       <c r="C53" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J53" s="15"/>
     </row>
     <row r="54">
       <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J54" s="15"/>
     </row>
     <row r="55">
       <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J55" s="15"/>
     </row>
     <row r="56">
       <c r="B56" s="7"/>
       <c r="C56" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J56" s="15"/>
     </row>
     <row r="57">
       <c r="B57" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C57" s="9">
         <v>0.0</v>
@@ -1647,134 +1771,134 @@
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J58" s="15"/>
     </row>
     <row r="59">
       <c r="B59" s="6"/>
       <c r="C59" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J59" s="15"/>
     </row>
     <row r="60">
       <c r="B60" s="6"/>
       <c r="C60" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J60" s="15"/>
     </row>
     <row r="61">
       <c r="B61" s="6"/>
       <c r="C61" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J61" s="15"/>
     </row>
     <row r="62">
       <c r="B62" s="7"/>
       <c r="C62" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J62" s="15"/>
     </row>
     <row r="63">
       <c r="B63" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C63" s="9">
         <v>0.4</v>
@@ -1804,134 +1928,134 @@
     </row>
     <row r="64">
       <c r="B64" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J64" s="15"/>
     </row>
     <row r="65">
       <c r="B65" s="6"/>
       <c r="C65" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J65" s="15"/>
     </row>
     <row r="66">
       <c r="B66" s="6"/>
       <c r="C66" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J66" s="15"/>
     </row>
     <row r="67">
       <c r="B67" s="6"/>
       <c r="C67" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J67" s="15"/>
     </row>
     <row r="68">
       <c r="B68" s="7"/>
       <c r="C68" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J68" s="15"/>
     </row>
     <row r="69">
       <c r="B69" s="18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C69" s="9">
         <v>0.6</v>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="82">
   <si>
     <t>英単語</t>
   </si>
@@ -64,12 +64,12 @@
     <t>×　〃</t>
   </si>
   <si>
+    <t>×　horse</t>
+  </si>
+  <si>
     <t>×　(wolf）</t>
   </si>
   <si>
-    <t>×　horse</t>
-  </si>
-  <si>
     <t>×　(wolf)</t>
   </si>
   <si>
@@ -109,6 +109,15 @@
     <t>×　horse　salmon</t>
   </si>
   <si>
+    <t>×　horse　wolf</t>
+  </si>
+  <si>
+    <t>×　wolf　horse</t>
+  </si>
+  <si>
+    <t>○　同時にhorse</t>
+  </si>
+  <si>
     <t>1/2確率</t>
   </si>
   <si>
@@ -175,9 +184,15 @@
     <t>×　(salmon）</t>
   </si>
   <si>
+    <t>×　salmon</t>
+  </si>
+  <si>
     <t>×　(cat）</t>
   </si>
   <si>
+    <t>×　cat</t>
+  </si>
+  <si>
     <t>×　(bear)</t>
   </si>
   <si>
@@ -190,6 +205,12 @@
     <t>×　(cow）</t>
   </si>
   <si>
+    <t>×　candy</t>
+  </si>
+  <si>
+    <t>×　wolf　giraffe</t>
+  </si>
+  <si>
     <t>○　(同時にwolf)</t>
   </si>
   <si>
@@ -202,13 +223,28 @@
     <t>×　　　〃</t>
   </si>
   <si>
+    <t>×　horse　giraffe</t>
+  </si>
+  <si>
     <t>○　(同時にhorse）</t>
   </si>
   <si>
+    <t>×　giraffe　candy</t>
+  </si>
+  <si>
+    <t>×　cow　wolf　monkey</t>
+  </si>
+  <si>
     <t>×　(cat)</t>
   </si>
   <si>
+    <t>×　cow　wolf</t>
+  </si>
+  <si>
     <t>○　(同時にcow)</t>
+  </si>
+  <si>
+    <t>○　同時にcow</t>
   </si>
   <si>
     <t>○　　　〃</t>
@@ -335,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -356,9 +392,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -398,11 +431,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="3" max="3" width="26.29"/>
+    <col customWidth="1" min="4" max="4" width="19.86"/>
     <col customWidth="1" min="5" max="5" width="18.57"/>
     <col customWidth="1" min="6" max="6" width="19.71"/>
     <col customWidth="1" min="7" max="7" width="19.86"/>
     <col customWidth="1" min="8" max="8" width="17.43"/>
     <col customWidth="1" min="9" max="9" width="21.0"/>
+    <col customWidth="1" min="10" max="10" width="19.43"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -449,11 +485,11 @@
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>20%</v>
+        <v>16%</v>
       </c>
       <c r="L4" s="2" t="str">
         <f>sum(C4:J4)/8</f>
-        <v>32%</v>
+        <v>31%</v>
       </c>
     </row>
     <row r="5">
@@ -508,8 +544,12 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="6"/>
@@ -531,8 +571,12 @@
       <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -546,19 +590,23 @@
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="6"/>
@@ -580,8 +628,12 @@
       <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10">
@@ -602,10 +654,14 @@
         <v>13</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="8" t="s">
@@ -617,27 +673,27 @@
       <c r="D11" s="9">
         <v>1.0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>0.8</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>0.0</v>
       </c>
       <c r="G11" s="9">
         <v>0.6</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>0.6</v>
       </c>
       <c r="I11" s="9">
         <v>0.0</v>
       </c>
       <c r="J11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="11" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="10" t="str">
         <f>sum(C11:J11)/8</f>
-        <v>38%</v>
+        <v>43%</v>
       </c>
     </row>
     <row r="12">
@@ -657,13 +713,17 @@
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="6"/>
@@ -685,13 +745,17 @@
       <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
@@ -708,8 +772,12 @@
       <c r="H14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="6"/>
@@ -731,8 +799,12 @@
       <c r="H15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="7"/>
@@ -754,14 +826,18 @@
       <c r="H16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>0.6</v>
       </c>
       <c r="D17" s="9">
@@ -773,7 +849,7 @@
       <c r="F17" s="9">
         <v>0.0</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>0.0</v>
       </c>
       <c r="H17" s="9">
@@ -785,7 +861,7 @@
       <c r="J17" s="9">
         <v>0.0</v>
       </c>
-      <c r="K17" s="11" t="str">
+      <c r="K17" s="10" t="str">
         <f>sum(C17:J17)/8</f>
         <v>20%</v>
       </c>
@@ -812,8 +888,12 @@
       <c r="H18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="6"/>
@@ -835,8 +915,12 @@
       <c r="H19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="6"/>
@@ -853,13 +937,17 @@
         <v>25</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="6"/>
@@ -881,8 +969,12 @@
       <c r="H21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="7"/>
@@ -899,17 +991,21 @@
         <v>25</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="12" t="s">
-        <v>32</v>
+      <c r="B23" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="9">
         <v>0.8</v>
@@ -920,13 +1016,13 @@
       <c r="E23" s="9">
         <v>0.8</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>0.0</v>
       </c>
       <c r="G23" s="9">
         <v>0.0</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>0.4</v>
       </c>
       <c r="I23" s="9">
@@ -935,40 +1031,44 @@
       <c r="J23" s="9">
         <v>0.4</v>
       </c>
-      <c r="K23" s="11" t="str">
+      <c r="K23" s="10" t="str">
         <f>sum(C23:J23)/8</f>
         <v>43%</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
@@ -983,10 +1083,14 @@
         <v>16</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="6"/>
@@ -1008,13 +1112,17 @@
       <c r="H26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
@@ -1023,16 +1131,20 @@
         <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" s="7"/>
@@ -1049,17 +1161,21 @@
         <v>14</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="12" t="s">
-        <v>38</v>
+      <c r="B29" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="9">
         <v>0.0</v>
@@ -1067,7 +1183,7 @@
       <c r="D29" s="9">
         <v>0.8</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>0.8</v>
       </c>
       <c r="F29" s="9">
@@ -1076,23 +1192,23 @@
       <c r="G29" s="9">
         <v>0.2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>0.2</v>
       </c>
       <c r="I29" s="9">
         <v>0.0</v>
       </c>
       <c r="J29" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="K29" s="11" t="str">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="10" t="str">
         <f>sum(C29:J29)/8</f>
-        <v>33%</v>
+        <v>28%</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>26</v>
@@ -1107,13 +1223,17 @@
         <v>14</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="6"/>
@@ -1124,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>16</v>
@@ -1135,13 +1255,17 @@
       <c r="H31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -1153,18 +1277,22 @@
         <v>13</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
@@ -1176,13 +1304,17 @@
         <v>14</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="7"/>
@@ -1199,17 +1331,21 @@
         <v>16</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="12" t="s">
-        <v>44</v>
+      <c r="B35" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C35" s="9">
         <v>0.0</v>
@@ -1217,13 +1353,13 @@
       <c r="D35" s="9">
         <v>1.0</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>0.6</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>0.2</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>0.0</v>
       </c>
       <c r="H35" s="9">
@@ -1233,42 +1369,42 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K35" s="11" t="str">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="10" t="str">
         <f>sum(C35:J35)/8</f>
-        <v>25%</v>
+        <v>23%</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="11" t="str">
+        <v>48</v>
+      </c>
+      <c r="C38" s="10" t="str">
         <f t="shared" ref="C38:I38" si="2">sum(C45,C51,C57,C63,C69)/5</f>
-        <v>48%</v>
-      </c>
-      <c r="D38" s="11" t="str">
+        <v>52%</v>
+      </c>
+      <c r="D38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>20%</v>
       </c>
-      <c r="E38" s="11" t="str">
+      <c r="E38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>60%</v>
       </c>
-      <c r="F38" s="11" t="str">
+      <c r="F38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>4%</v>
       </c>
-      <c r="G38" s="11" t="str">
+      <c r="G38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>4%</v>
       </c>
-      <c r="H38" s="11" t="str">
+      <c r="H38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>4%</v>
       </c>
-      <c r="I38" s="11" t="str">
+      <c r="I38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0%</v>
       </c>
@@ -1276,27 +1412,27 @@
     <row r="39">
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="13"/>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
@@ -1306,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -1318,12 +1454,12 @@
         <v>23</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="15"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41">
       <c r="B41" s="6"/>
@@ -1331,7 +1467,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -1345,10 +1481,10 @@
       <c r="H41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="15"/>
+      <c r="I41" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="14"/>
     </row>
     <row r="42">
       <c r="B42" s="6"/>
@@ -1356,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>15</v>
@@ -1370,10 +1506,10 @@
       <c r="H42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43">
       <c r="B43" s="6"/>
@@ -1381,13 +1517,13 @@
         <v>13</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>25</v>
@@ -1395,10 +1531,10 @@
       <c r="H43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="15"/>
+      <c r="I43" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="14"/>
     </row>
     <row r="44">
       <c r="B44" s="7"/>
@@ -1406,7 +1542,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -1420,13 +1556,13 @@
       <c r="H44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" s="15"/>
+      <c r="I44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="14"/>
     </row>
     <row r="45">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="9">
@@ -1435,7 +1571,7 @@
       <c r="D45" s="9">
         <v>0.0</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>0.6</v>
       </c>
       <c r="F45" s="9">
@@ -1447,10 +1583,10 @@
       <c r="H45" s="9">
         <v>0.0</v>
       </c>
-      <c r="I45" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="17" t="str">
+      <c r="I45" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="16" t="str">
         <f>sum(C45:I45)/7</f>
         <v>17%</v>
       </c>
@@ -1463,13 +1599,13 @@
         <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>23</v>
@@ -1477,10 +1613,10 @@
       <c r="H46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="15"/>
+      <c r="I46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" s="14"/>
     </row>
     <row r="47">
       <c r="B47" s="6"/>
@@ -1488,7 +1624,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>15</v>
@@ -1500,12 +1636,12 @@
         <v>16</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J47" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47" s="14"/>
     </row>
     <row r="48">
       <c r="B48" s="6"/>
@@ -1513,7 +1649,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -1522,15 +1658,15 @@
         <v>25</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J48" s="15"/>
+      <c r="I48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" s="14"/>
     </row>
     <row r="49">
       <c r="B49" s="6"/>
@@ -1538,7 +1674,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>15</v>
@@ -1552,10 +1688,10 @@
       <c r="H49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" s="15"/>
+      <c r="I49" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" s="14"/>
     </row>
     <row r="50">
       <c r="B50" s="7"/>
@@ -1563,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>15</v>
@@ -1577,39 +1713,39 @@
       <c r="H50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="15"/>
+      <c r="I50" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="14"/>
     </row>
     <row r="51">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="9">
         <v>0.8</v>
       </c>
       <c r="D51" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E51" s="10">
         <v>0.2</v>
       </c>
+      <c r="E51" s="9">
+        <v>0.2</v>
+      </c>
       <c r="F51" s="9">
         <v>0.0</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>0.2</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>0.2</v>
       </c>
-      <c r="I51" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="17" t="str">
+      <c r="I51" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="16" t="str">
         <f>sum(C51:I51)/7</f>
-        <v>20%</v>
+        <v>23%</v>
       </c>
     </row>
     <row r="52">
@@ -1617,13 +1753,13 @@
         <v>29</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>23</v>
@@ -1632,26 +1768,26 @@
         <v>23</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="14"/>
     </row>
     <row r="53">
       <c r="B53" s="6"/>
       <c r="C53" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>16</v>
@@ -1659,24 +1795,24 @@
       <c r="H53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J53" s="15"/>
+      <c r="I53" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J53" s="14"/>
     </row>
     <row r="54">
       <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>16</v>
@@ -1684,21 +1820,21 @@
       <c r="H54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" s="15"/>
+      <c r="I54" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54" s="14"/>
     </row>
     <row r="55">
       <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>23</v>
@@ -1709,24 +1845,24 @@
       <c r="H55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I55" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J55" s="15"/>
+      <c r="I55" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="14"/>
     </row>
     <row r="56">
       <c r="B56" s="7"/>
       <c r="C56" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>16</v>
@@ -1734,14 +1870,14 @@
       <c r="H56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" s="15"/>
+      <c r="I56" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="14"/>
     </row>
     <row r="57">
-      <c r="B57" s="12" t="s">
-        <v>32</v>
+      <c r="B57" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C57" s="9">
         <v>0.0</v>
@@ -1749,10 +1885,10 @@
       <c r="D57" s="9">
         <v>0.0</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="9">
         <v>1.0</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>0.2</v>
       </c>
       <c r="G57" s="9">
@@ -1761,23 +1897,23 @@
       <c r="H57" s="9">
         <v>0.0</v>
       </c>
-      <c r="I57" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J57" s="17" t="str">
+      <c r="I57" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="16" t="str">
         <f>sum(C57:I57)/7</f>
         <v>17%</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>15</v>
@@ -1789,26 +1925,26 @@
         <v>23</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J58" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="14"/>
     </row>
     <row r="59">
       <c r="B59" s="6"/>
       <c r="C59" s="4" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>16</v>
@@ -1816,24 +1952,24 @@
       <c r="H59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I59" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J59" s="15"/>
+      <c r="I59" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="14"/>
     </row>
     <row r="60">
       <c r="B60" s="6"/>
       <c r="C60" s="4" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>16</v>
@@ -1841,24 +1977,24 @@
       <c r="H60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J60" s="15"/>
+      <c r="I60" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="14"/>
     </row>
     <row r="61">
       <c r="B61" s="6"/>
       <c r="C61" s="4" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>16</v>
@@ -1866,24 +2002,24 @@
       <c r="H61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J61" s="15"/>
+      <c r="I61" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="14"/>
     </row>
     <row r="62">
       <c r="B62" s="7"/>
       <c r="C62" s="4" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>16</v>
@@ -1891,22 +2027,22 @@
       <c r="H62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I62" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J62" s="15"/>
+      <c r="I62" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="14"/>
     </row>
     <row r="63">
-      <c r="B63" s="12" t="s">
-        <v>38</v>
+      <c r="B63" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C63" s="9">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D63" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="E63" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E63" s="9">
         <v>0.8</v>
       </c>
       <c r="F63" s="9">
@@ -1918,17 +2054,17 @@
       <c r="H63" s="9">
         <v>0.0</v>
       </c>
-      <c r="I63" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J63" s="17" t="str">
+      <c r="I63" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="16" t="str">
         <f>sum(C63:I63)/7</f>
         <v>20%</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>15</v>
@@ -1943,15 +2079,15 @@
         <v>23</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J64" s="15"/>
+      <c r="I64" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J64" s="14"/>
     </row>
     <row r="65">
       <c r="B65" s="6"/>
@@ -1962,10 +2098,10 @@
         <v>15</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>26</v>
@@ -1973,10 +2109,10 @@
       <c r="H65" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65" s="15"/>
+      <c r="I65" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J65" s="14"/>
     </row>
     <row r="66">
       <c r="B66" s="6"/>
@@ -1990,18 +2126,18 @@
         <v>15</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I66" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J66" s="15"/>
+      <c r="I66" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J66" s="14"/>
     </row>
     <row r="67">
       <c r="B67" s="6"/>
@@ -2012,21 +2148,21 @@
         <v>13</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H67" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I67" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J67" s="15"/>
+      <c r="I67" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J67" s="14"/>
     </row>
     <row r="68">
       <c r="B68" s="7"/>
@@ -2040,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>23</v>
@@ -2048,14 +2184,14 @@
       <c r="H68" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J68" s="15"/>
+      <c r="I68" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J68" s="14"/>
     </row>
     <row r="69">
-      <c r="B69" s="18" t="s">
-        <v>44</v>
+      <c r="B69" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C69" s="9">
         <v>0.6</v>
@@ -2063,7 +2199,7 @@
       <c r="D69" s="9">
         <v>0.8</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="9">
         <v>0.4</v>
       </c>
       <c r="F69" s="9">
@@ -2078,7 +2214,7 @@
       <c r="I69" s="9">
         <v>0.0</v>
       </c>
-      <c r="J69" s="17" t="str">
+      <c r="J69" s="16" t="str">
         <f>sum(C69:I69)/7</f>
         <v>26%</v>
       </c>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="106">
   <si>
     <t>英単語</t>
   </si>
@@ -22,248 +22,323 @@
     <t>動物</t>
   </si>
   <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>cow</t>
-  </si>
-  <si>
-    <t>giraffe</t>
+    <t>cat（ｷｬｯﾄ）　C　a,o</t>
+  </si>
+  <si>
+    <t>cow（ｶｳ）C　a,u</t>
+  </si>
+  <si>
+    <t>giraffe(ｼﾞｭﾗﾌ)G　u,a</t>
+  </si>
+  <si>
+    <t>bear（ﾍﾞｱ）B　e,a</t>
+  </si>
+  <si>
+    <t>monkey（ﾏﾝｷｰ）M　a,i</t>
+  </si>
+  <si>
+    <t>wolf（ｳﾙﾌ）W　u</t>
+  </si>
+  <si>
+    <t>tiger（ﾀｲｶﾞｰ）T　a,i</t>
+  </si>
+  <si>
+    <t>lion（ﾗｲｱﾝ）L　a,i</t>
+  </si>
+  <si>
+    <t>最適化</t>
+  </si>
+  <si>
+    <t>×　（cow）</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>×　wolf</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>×　〃</t>
+  </si>
+  <si>
+    <t>×　horse</t>
+  </si>
+  <si>
+    <t>速さ2倍</t>
+  </si>
+  <si>
+    <t>×　(wolf）</t>
+  </si>
+  <si>
+    <t>速さ1/2</t>
+  </si>
+  <si>
+    <t>×　(wolf)</t>
+  </si>
+  <si>
+    <t>○　同時にtiger</t>
+  </si>
+  <si>
+    <t>音量2倍</t>
+  </si>
+  <si>
+    <t>音程変化</t>
+  </si>
+  <si>
+    <t>最適化確率</t>
+  </si>
+  <si>
+    <t>×　(horse）</t>
+  </si>
+  <si>
+    <t>×　認識せず</t>
+  </si>
+  <si>
+    <t>×　　〃</t>
+  </si>
+  <si>
+    <t>×　(lion）</t>
+  </si>
+  <si>
+    <t>×　(water）</t>
+  </si>
+  <si>
+    <t>2倍確率</t>
+  </si>
+  <si>
+    <t>×　hamburger</t>
+  </si>
+  <si>
+    <t>×　horse　salmon</t>
+  </si>
+  <si>
+    <t>×　horse　wolf</t>
+  </si>
+  <si>
+    <t>×　wolf　horse</t>
+  </si>
+  <si>
+    <t>○　同時にhorse</t>
+  </si>
+  <si>
+    <t>1/2確率</t>
+  </si>
+  <si>
+    <t>×　cow</t>
+  </si>
+  <si>
+    <t>×　(cow)</t>
+  </si>
+  <si>
+    <t>○　同時でwater</t>
+  </si>
+  <si>
+    <t>×　cow　horse</t>
+  </si>
+  <si>
+    <t>音量確率</t>
+  </si>
+  <si>
+    <t>×　tiger</t>
+  </si>
+  <si>
+    <t>×　（wolf）</t>
+  </si>
+  <si>
+    <t>×　giraffe　horse</t>
+  </si>
+  <si>
+    <t>×　horse　candy</t>
+  </si>
+  <si>
+    <t>音程確率</t>
+  </si>
+  <si>
+    <t>飲食物</t>
+  </si>
+  <si>
+    <t>hamburger(ﾊﾝﾊﾞｶﾞｰ）　H　a</t>
+  </si>
+  <si>
+    <t>water（ｳｫｰﾀｰ）W　o,a</t>
+  </si>
+  <si>
+    <t>salmon（ｻｰﾓﾝ）S　a,o</t>
+  </si>
+  <si>
+    <t>meat(ﾐｰﾄ）M　i,o</t>
+  </si>
+  <si>
+    <t>candy（ｷｬﾝﾃﾞｨ）C　a,i</t>
+  </si>
+  <si>
+    <t>fish(ﾌｨｯｼｭ）F　i,u</t>
+  </si>
+  <si>
+    <t>yogurt(ﾖｰｶﾞｰﾄ）Y　o,a</t>
+  </si>
+  <si>
+    <t>×　(salmon）</t>
+  </si>
+  <si>
+    <t>×　salmon</t>
+  </si>
+  <si>
+    <t>×　(cat）</t>
+  </si>
+  <si>
+    <t>×　cat</t>
+  </si>
+  <si>
+    <t>×　(bear)</t>
+  </si>
+  <si>
+    <t>×　(horse)</t>
+  </si>
+  <si>
+    <t>○　（同時にhorse）</t>
+  </si>
+  <si>
+    <t>×　(cow）</t>
+  </si>
+  <si>
+    <t>×　candy</t>
+  </si>
+  <si>
+    <t>×　wolf　giraffe</t>
+  </si>
+  <si>
+    <t>○　(同時にwolf)</t>
+  </si>
+  <si>
+    <t>×　(cow,wolf）</t>
+  </si>
+  <si>
+    <t>○　　　　〃</t>
+  </si>
+  <si>
+    <t>×　　　〃</t>
+  </si>
+  <si>
+    <t>×　horse　giraffe</t>
+  </si>
+  <si>
+    <t>○　(同時にhorse）</t>
+  </si>
+  <si>
+    <t>×　giraffe　candy</t>
+  </si>
+  <si>
+    <t>×　cow　wolf　monkey</t>
+  </si>
+  <si>
+    <t>×　(cat)</t>
+  </si>
+  <si>
+    <t>×　cow　wolf</t>
+  </si>
+  <si>
+    <t>○　(同時にcow)</t>
+  </si>
+  <si>
+    <t>○　同時にcow</t>
+  </si>
+  <si>
+    <t>○　　　〃</t>
+  </si>
+  <si>
+    <t>×　（giraffe)</t>
+  </si>
+  <si>
+    <t>○　(同時にcow）</t>
+  </si>
+  <si>
+    <t>×　（giraffe,candy)</t>
+  </si>
+  <si>
+    <t>母音iとeを含む</t>
   </si>
   <si>
     <t>bear</t>
   </si>
   <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
     <t>monkey</t>
   </si>
   <si>
-    <t>wolf</t>
-  </si>
-  <si>
     <t>tiger</t>
   </si>
   <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>最適化</t>
-  </si>
-  <si>
-    <t>×　（cow）</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>×　wolf</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>×　〃</t>
-  </si>
-  <si>
-    <t>×　horse</t>
-  </si>
-  <si>
-    <t>×　(wolf）</t>
-  </si>
-  <si>
-    <t>×　(wolf)</t>
-  </si>
-  <si>
-    <t>○　同時にtiger</t>
-  </si>
-  <si>
-    <t>最適化確率</t>
-  </si>
-  <si>
-    <t>速さ2倍</t>
-  </si>
-  <si>
-    <t>×　(horse）</t>
-  </si>
-  <si>
-    <t>×　認識せず</t>
-  </si>
-  <si>
-    <t>×　　〃</t>
-  </si>
-  <si>
-    <t>×　(lion）</t>
-  </si>
-  <si>
-    <t>×　(water）</t>
-  </si>
-  <si>
-    <t>2倍確率</t>
-  </si>
-  <si>
-    <t>速さ1/2</t>
-  </si>
-  <si>
-    <t>×　hamburger</t>
-  </si>
-  <si>
-    <t>×　horse　salmon</t>
-  </si>
-  <si>
-    <t>×　horse　wolf</t>
-  </si>
-  <si>
-    <t>×　wolf　horse</t>
-  </si>
-  <si>
-    <t>○　同時にhorse</t>
-  </si>
-  <si>
-    <t>1/2確率</t>
-  </si>
-  <si>
-    <t>音量2倍</t>
-  </si>
-  <si>
-    <t>×　cow</t>
-  </si>
-  <si>
-    <t>×　(cow)</t>
-  </si>
-  <si>
-    <t>○　同時でwater</t>
-  </si>
-  <si>
-    <t>×　cow　horse</t>
-  </si>
-  <si>
-    <t>音量確率</t>
-  </si>
-  <si>
-    <t>音程変化</t>
-  </si>
-  <si>
-    <t>×　tiger</t>
-  </si>
-  <si>
-    <t>×　（wolf）</t>
-  </si>
-  <si>
-    <t>×　giraffe　horse</t>
-  </si>
-  <si>
-    <t>×　horse　candy</t>
-  </si>
-  <si>
-    <t>音程確率</t>
-  </si>
-  <si>
-    <t>飲食物</t>
-  </si>
-  <si>
-    <t>hamburger</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>salmon</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>candy</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>yogurt</t>
-  </si>
-  <si>
-    <t>×　(salmon）</t>
-  </si>
-  <si>
-    <t>×　salmon</t>
-  </si>
-  <si>
-    <t>×　(cat）</t>
-  </si>
-  <si>
-    <t>×　cat</t>
-  </si>
-  <si>
-    <t>×　(bear)</t>
-  </si>
-  <si>
-    <t>×　(horse)</t>
-  </si>
-  <si>
-    <t>○　（同時にhorse）</t>
-  </si>
-  <si>
-    <t>×　(cow）</t>
-  </si>
-  <si>
-    <t>×　candy</t>
-  </si>
-  <si>
-    <t>×　wolf　giraffe</t>
-  </si>
-  <si>
-    <t>○　(同時にwolf)</t>
-  </si>
-  <si>
-    <t>×　(cow,wolf）</t>
-  </si>
-  <si>
-    <t>○　　　　〃</t>
-  </si>
-  <si>
-    <t>×　　　〃</t>
-  </si>
-  <si>
-    <t>×　horse　giraffe</t>
-  </si>
-  <si>
-    <t>○　(同時にhorse）</t>
-  </si>
-  <si>
-    <t>×　giraffe　candy</t>
-  </si>
-  <si>
-    <t>×　cow　wolf　monkey</t>
-  </si>
-  <si>
-    <t>×　(cat)</t>
-  </si>
-  <si>
-    <t>×　cow　wolf</t>
-  </si>
-  <si>
-    <t>○　(同時にcow)</t>
-  </si>
-  <si>
-    <t>○　同時にcow</t>
-  </si>
-  <si>
-    <t>○　　　〃</t>
-  </si>
-  <si>
-    <t>×　（giraffe)</t>
-  </si>
-  <si>
-    <t>○　(同時にcow）</t>
-  </si>
-  <si>
-    <t>×　（giraffe,candy)</t>
+    <t>×　giraffe</t>
+  </si>
+  <si>
+    <t>×　lion</t>
+  </si>
+  <si>
+    <t>5回の確率</t>
+  </si>
+  <si>
+    <t>誤認識の比率</t>
+  </si>
+  <si>
+    <t>cat(100%)</t>
+  </si>
+  <si>
+    <t>cat(60%)、horse(40%)</t>
+  </si>
+  <si>
+    <t>horse(100%)</t>
+  </si>
+  <si>
+    <t>giraffe(100%)</t>
+  </si>
+  <si>
+    <t>cow(80%)、lion(20%)</t>
+  </si>
+  <si>
+    <t>giraffe(20%)、cow(20%)、認識せず(60%)</t>
+  </si>
+  <si>
+    <t>前回比</t>
+  </si>
+  <si>
+    <t>0%→40%(40%↑)</t>
+  </si>
+  <si>
+    <t>0%→0%</t>
+  </si>
+  <si>
+    <t>0%→60%(60%↑)</t>
+  </si>
+  <si>
+    <t>40%→20%(20%↓)</t>
+  </si>
+  <si>
+    <t>60%→0%(60%↓)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -275,15 +350,26 @@
       <sz val="12.0"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
       <b/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -371,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -386,16 +472,18 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -405,11 +493,26 @@
       <alignment/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,13 +534,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="26.29"/>
-    <col customWidth="1" min="4" max="4" width="19.86"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
+    <col customWidth="1" min="3" max="3" width="30.71"/>
+    <col customWidth="1" min="4" max="4" width="24.57"/>
+    <col customWidth="1" min="5" max="5" width="24.43"/>
     <col customWidth="1" min="6" max="6" width="19.71"/>
-    <col customWidth="1" min="7" max="7" width="19.86"/>
-    <col customWidth="1" min="8" max="8" width="17.43"/>
-    <col customWidth="1" min="9" max="9" width="21.0"/>
+    <col customWidth="1" min="7" max="7" width="25.0"/>
+    <col customWidth="1" min="8" max="8" width="20.43"/>
+    <col customWidth="1" min="9" max="9" width="33.86"/>
     <col customWidth="1" min="10" max="10" width="19.43"/>
   </cols>
   <sheetData>
@@ -550,9 +653,16 @@
       <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6" t="str">
+        <f>sum(C11:J11,C45:I45)/15</f>
+        <v>30.7%</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -579,10 +689,16 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="8" t="str">
+        <f>sum(C17:J17,C51:I51)/15</f>
+        <v>21.3%</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
@@ -590,7 +706,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
@@ -607,11 +723,18 @@
       <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f>sum(C23:J23,C57:I57)/15</f>
+        <v>30.7%</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -626,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>16</v>
@@ -635,9 +758,16 @@
         <v>16</v>
       </c>
       <c r="K9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="6" t="str">
+        <f>sum(C29:J29,C63:I63)/15</f>
+        <v>24.0%</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="7"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
@@ -662,43 +792,50 @@
       <c r="J10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f>sum(C35:J35,C69:I69)/15</f>
+        <v>24.0%</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="11">
         <v>1.0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>0.8</v>
       </c>
-      <c r="F11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="11">
         <v>0.6</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>0.6</v>
       </c>
-      <c r="I11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="I11" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="11">
         <v>0.4</v>
       </c>
-      <c r="K11" s="10" t="str">
+      <c r="K11" s="12" t="str">
         <f>sum(C11:J11)/8</f>
         <v>43%</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -707,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>17</v>
@@ -726,7 +863,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
@@ -734,10 +871,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>16</v>
@@ -753,18 +890,18 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>16</v>
@@ -780,7 +917,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
@@ -788,10 +925,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
@@ -807,18 +944,18 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>16</v>
@@ -834,41 +971,41 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="11">
         <v>0.6</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>1.0</v>
       </c>
-      <c r="E17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="10" t="str">
+      <c r="E17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="12" t="str">
         <f>sum(C17:J17)/8</f>
         <v>20%</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -880,23 +1017,23 @@
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
@@ -923,7 +1060,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
@@ -934,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>17</v>
@@ -950,7 +1087,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
@@ -961,10 +1098,10 @@
         <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>16</v>
@@ -973,11 +1110,11 @@
         <v>16</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
@@ -988,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>17</v>
@@ -1000,48 +1137,48 @@
         <v>16</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="11">
         <v>0.8</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <v>1.0</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="11">
         <v>0.8</v>
       </c>
-      <c r="F23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="9">
+      <c r="F23" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="11">
         <v>0.4</v>
       </c>
-      <c r="I23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="I23" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="11">
         <v>0.4</v>
       </c>
-      <c r="K23" s="10" t="str">
+      <c r="K23" s="12" t="str">
         <f>sum(C23:J23)/8</f>
         <v>43%</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
@@ -1066,9 +1203,9 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
@@ -1083,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>16</v>
@@ -1093,15 +1230,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>14</v>
@@ -1120,9 +1257,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
@@ -1131,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>16</v>
@@ -1147,9 +1284,9 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>15</v>
@@ -1161,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>13</v>
@@ -1174,44 +1311,44 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="B29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="11">
         <v>0.8</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="11">
         <v>0.8</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="11">
         <v>0.2</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="11">
         <v>0.2</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="11">
         <v>0.2</v>
       </c>
-      <c r="I29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="10" t="str">
+      <c r="I29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="12" t="str">
         <f>sum(C29:J29)/8</f>
         <v>28%</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
@@ -1232,13 +1369,13 @@
         <v>17</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
@@ -1263,9 +1400,9 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -1290,15 +1427,15 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="6"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>14</v>
@@ -1317,7 +1454,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="7"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4" t="s">
         <v>13</v>
       </c>
@@ -1337,74 +1474,79 @@
         <v>16</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="D35" s="9">
+      <c r="C35" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="11">
         <v>1.0</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="11">
         <v>0.6</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="11">
         <v>0.2</v>
       </c>
-      <c r="G35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="K35" s="10" t="str">
+      <c r="G35" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="12" t="str">
         <f>sum(C35:J35)/8</f>
         <v>23%</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="1">
+        <v>17.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="10" t="str">
+      <c r="C38" s="12" t="str">
         <f t="shared" ref="C38:I38" si="2">sum(C45,C51,C57,C63,C69)/5</f>
         <v>52%</v>
       </c>
-      <c r="D38" s="10" t="str">
+      <c r="D38" s="12" t="str">
         <f t="shared" si="2"/>
         <v>20%</v>
       </c>
-      <c r="E38" s="10" t="str">
+      <c r="E38" s="12" t="str">
         <f t="shared" si="2"/>
         <v>60%</v>
       </c>
-      <c r="F38" s="10" t="str">
+      <c r="F38" s="12" t="str">
         <f t="shared" si="2"/>
         <v>4%</v>
       </c>
-      <c r="G38" s="10" t="str">
+      <c r="G38" s="12" t="str">
         <f t="shared" si="2"/>
         <v>4%</v>
       </c>
-      <c r="H38" s="10" t="str">
+      <c r="H38" s="12" t="str">
         <f t="shared" si="2"/>
         <v>4%</v>
       </c>
-      <c r="I38" s="10" t="str">
+      <c r="I38" s="12" t="str">
         <f t="shared" si="2"/>
         <v>0%</v>
       </c>
@@ -1429,10 +1571,10 @@
       <c r="H39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="13"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
@@ -1448,21 +1590,21 @@
         <v>13</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="14"/>
+      <c r="I40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="16"/>
     </row>
     <row r="41">
-      <c r="B41" s="6"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="4" t="s">
         <v>13</v>
       </c>
@@ -1476,18 +1618,18 @@
         <v>16</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J41" s="14"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42">
-      <c r="B42" s="6"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1501,18 +1643,18 @@
         <v>16</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="16"/>
     </row>
     <row r="43">
-      <c r="B43" s="6"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>13</v>
       </c>
@@ -1526,18 +1668,18 @@
         <v>56</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J43" s="14"/>
+      <c r="J43" s="16"/>
     </row>
     <row r="44">
-      <c r="B44" s="7"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="4" t="s">
         <v>15</v>
       </c>
@@ -1551,49 +1693,49 @@
         <v>15</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="C45" s="11">
         <v>0.6</v>
       </c>
-      <c r="D45" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E45" s="9">
+      <c r="D45" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E45" s="11">
         <v>0.6</v>
       </c>
-      <c r="F45" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I45" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="16" t="str">
+      <c r="F45" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="18" t="str">
         <f>sum(C45:I45)/7</f>
         <v>17%</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>13</v>
@@ -1608,29 +1750,29 @@
         <v>61</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J46" s="14"/>
+      <c r="J46" s="16"/>
     </row>
     <row r="47">
-      <c r="B47" s="6"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>16</v>
@@ -1638,13 +1780,13 @@
       <c r="H47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J47" s="14"/>
+      <c r="J47" s="16"/>
     </row>
     <row r="48">
-      <c r="B48" s="6"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="4" t="s">
         <v>13</v>
       </c>
@@ -1655,21 +1797,21 @@
         <v>13</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="14"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49">
-      <c r="B49" s="6"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="4" t="s">
         <v>15</v>
       </c>
@@ -1680,77 +1822,77 @@
         <v>15</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="9"/>
+      <c r="C50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="7"/>
-      <c r="C50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J50" s="14"/>
+      <c r="J50" s="16"/>
     </row>
     <row r="51">
-      <c r="B51" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="9">
+      <c r="B51" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="11">
         <v>0.8</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="11">
         <v>0.2</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="11">
         <v>0.2</v>
       </c>
-      <c r="F51" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G51" s="9">
+      <c r="F51" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G51" s="11">
         <v>0.2</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="11">
         <v>0.2</v>
       </c>
-      <c r="I51" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="16" t="str">
+      <c r="I51" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="18" t="str">
         <f>sum(C51:I51)/7</f>
         <v>23%</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>64</v>
@@ -1762,23 +1904,23 @@
         <v>66</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J52" s="14"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53">
-      <c r="B53" s="6"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>16</v>
@@ -1793,15 +1935,15 @@
         <v>16</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J53" s="14"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54">
-      <c r="B54" s="6"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="4" t="s">
         <v>70</v>
       </c>
@@ -1818,15 +1960,15 @@
         <v>16</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J54" s="14"/>
+      <c r="J54" s="16"/>
     </row>
     <row r="55">
-      <c r="B55" s="6"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="4" t="s">
         <v>16</v>
       </c>
@@ -1837,21 +1979,21 @@
         <v>68</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J55" s="14"/>
+      <c r="J55" s="16"/>
     </row>
     <row r="56">
-      <c r="B56" s="7"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="4" t="s">
         <v>64</v>
       </c>
@@ -1868,72 +2010,72 @@
         <v>16</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J56" s="14"/>
+      <c r="J56" s="16"/>
     </row>
     <row r="57">
-      <c r="B57" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="D57" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E57" s="9">
+      <c r="B57" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="11">
         <v>1.0</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="11">
         <v>0.2</v>
       </c>
-      <c r="G57" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I57" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J57" s="16" t="str">
+      <c r="G57" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I57" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="18" t="str">
         <f>sum(C57:I57)/7</f>
         <v>17%</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J58" s="14"/>
+      <c r="J58" s="16"/>
     </row>
     <row r="59">
-      <c r="B59" s="6"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="4" t="s">
         <v>75</v>
       </c>
@@ -1950,15 +2092,15 @@
         <v>16</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I59" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="14"/>
+      <c r="J59" s="16"/>
     </row>
     <row r="60">
-      <c r="B60" s="6"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="4" t="s">
         <v>77</v>
       </c>
@@ -1975,20 +2117,20 @@
         <v>16</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="14"/>
+      <c r="J60" s="16"/>
     </row>
     <row r="61">
-      <c r="B61" s="6"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>78</v>
@@ -2000,15 +2142,15 @@
         <v>16</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J61" s="14"/>
+      <c r="J61" s="16"/>
     </row>
     <row r="62">
-      <c r="B62" s="7"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="4" t="s">
         <v>77</v>
       </c>
@@ -2025,46 +2167,46 @@
         <v>16</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I62" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J62" s="14"/>
+      <c r="J62" s="16"/>
     </row>
     <row r="63">
-      <c r="B63" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="9">
+      <c r="B63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="11">
         <v>0.6</v>
       </c>
-      <c r="D63" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E63" s="9">
+      <c r="D63" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E63" s="11">
         <v>0.8</v>
       </c>
-      <c r="F63" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I63" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J63" s="16" t="str">
+      <c r="F63" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="18" t="str">
         <f>sum(C63:I63)/7</f>
         <v>20%</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>15</v>
@@ -2076,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>61</v>
@@ -2084,13 +2226,13 @@
       <c r="H64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J64" s="14"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65">
-      <c r="B65" s="6"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="4" t="s">
         <v>15</v>
       </c>
@@ -2104,18 +2246,18 @@
         <v>69</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J65" s="14"/>
+      <c r="J65" s="16"/>
     </row>
     <row r="66">
-      <c r="B66" s="6"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="4" t="s">
         <v>13</v>
       </c>
@@ -2132,15 +2274,15 @@
         <v>61</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J66" s="14"/>
+      <c r="J66" s="16"/>
     </row>
     <row r="67">
-      <c r="B67" s="6"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="4" t="s">
         <v>13</v>
       </c>
@@ -2157,15 +2299,15 @@
         <v>61</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J67" s="14"/>
+      <c r="J67" s="16"/>
     </row>
     <row r="68">
-      <c r="B68" s="7"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="4" t="s">
         <v>13</v>
       </c>
@@ -2179,58 +2321,288 @@
         <v>69</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="14"/>
+      <c r="J68" s="16"/>
     </row>
     <row r="69">
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="11">
         <v>0.6</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="11">
         <v>0.8</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="11">
         <v>0.4</v>
       </c>
-      <c r="F69" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="G69" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J69" s="16" t="str">
+      <c r="F69" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="18" t="str">
         <f>sum(C69:I69)/7</f>
         <v>26%</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="7"/>
+      <c r="C76" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="7"/>
+      <c r="C77" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="7"/>
+      <c r="C78" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="9"/>
+      <c r="C79" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="D80" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="E80" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F80" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G80" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="H80" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B75:B79"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B52:B56"/>
     <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B46:B50"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="114">
   <si>
     <t>英単語</t>
   </si>
@@ -329,6 +329,30 @@
   </si>
   <si>
     <t>60%→0%(60%↓)</t>
+  </si>
+  <si>
+    <t>伸ばし音無しVer</t>
+  </si>
+  <si>
+    <t>×　反応なし</t>
+  </si>
+  <si>
+    <t>giraffe(40%)、horse(60%)</t>
+  </si>
+  <si>
+    <t>cow(40%)、horse(60%)</t>
+  </si>
+  <si>
+    <t>cat(40%)、cow(60%)</t>
+  </si>
+  <si>
+    <t>反応なし(100%)</t>
+  </si>
+  <si>
+    <t>40%→0%</t>
+  </si>
+  <si>
+    <t>0%→20%</t>
   </si>
 </sst>
 </file>
@@ -457,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -515,6 +539,33 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2590,18 +2641,212 @@
         <v>102</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H86" s="26"/>
+      <c r="I86" s="27"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" s="29"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="7"/>
+      <c r="C88" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H88" s="29"/>
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="7"/>
+      <c r="C89" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H89" s="29"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="7"/>
+      <c r="C90" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H90" s="29"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="9"/>
+      <c r="C91" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H91" s="29"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D92" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="E92" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F92" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G92" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="H92" s="32"/>
+      <c r="I92" s="33"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H93" s="29"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="29"/>
+      <c r="I94" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B87:B91"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B34"/>
     <mergeCell ref="B58:B62"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="119">
   <si>
     <t>英単語</t>
   </si>
@@ -353,6 +353,21 @@
   </si>
   <si>
     <t>0%→20%</t>
+  </si>
+  <si>
+    <t>語尾の伸ばし音無し</t>
+  </si>
+  <si>
+    <t>×　monkey</t>
+  </si>
+  <si>
+    <t>giraffe(80%)、lion(20%)</t>
+  </si>
+  <si>
+    <t>cat(60%)、horse(20%)、monkey(20%)</t>
+  </si>
+  <si>
+    <t>cow()</t>
   </si>
 </sst>
 </file>
@@ -574,11 +589,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -586,7 +601,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="30.71"/>
-    <col customWidth="1" min="4" max="4" width="24.57"/>
+    <col customWidth="1" min="4" max="4" width="33.29"/>
     <col customWidth="1" min="5" max="5" width="24.43"/>
     <col customWidth="1" min="6" max="6" width="19.71"/>
     <col customWidth="1" min="7" max="7" width="25.0"/>
@@ -2834,20 +2849,178 @@
       <c r="H94" s="29"/>
       <c r="I94" s="30"/>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="20"/>
+      <c r="C98" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" s="26"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" s="29"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="7"/>
+      <c r="C100" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G100" s="29"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="7"/>
+      <c r="C101" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" s="29"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="7"/>
+      <c r="C102" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" s="29"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="9"/>
+      <c r="C103" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="29"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D104" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="E104" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F104" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="G104" s="32"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G105" s="29"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G106" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B46:B50"/>
     <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B58:B62"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B99:B103"/>
     <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B46:B50"/>
     <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B58:B62"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/月読アイ　認識テスト.xlsx
+++ b/月読アイ　認識テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="126">
   <si>
     <t>英単語</t>
   </si>
@@ -367,7 +367,28 @@
     <t>cat(60%)、horse(20%)、monkey(20%)</t>
   </si>
   <si>
-    <t>cow()</t>
+    <t>cow(100%)</t>
+  </si>
+  <si>
+    <t>cow(60%)、反応なし(40%)</t>
+  </si>
+  <si>
+    <t>単語辞書の優先順位について　単語辞書の登録順番を変える</t>
+  </si>
+  <si>
+    <t>×　water</t>
+  </si>
+  <si>
+    <t>giraffe(80%)、horse(20%)</t>
+  </si>
+  <si>
+    <t>horse(80%)、salmon(20%)</t>
+  </si>
+  <si>
+    <t>giraffe(40%)、cow(60%)</t>
+  </si>
+  <si>
+    <t>cow(80%)、water(20%)</t>
   </si>
 </sst>
 </file>
@@ -603,7 +624,7 @@
     <col customWidth="1" min="3" max="3" width="30.71"/>
     <col customWidth="1" min="4" max="4" width="33.29"/>
     <col customWidth="1" min="5" max="5" width="24.43"/>
-    <col customWidth="1" min="6" max="6" width="19.71"/>
+    <col customWidth="1" min="6" max="6" width="22.43"/>
     <col customWidth="1" min="7" max="7" width="25.0"/>
     <col customWidth="1" min="8" max="8" width="20.43"/>
     <col customWidth="1" min="9" max="9" width="33.86"/>
@@ -2984,7 +3005,7 @@
         <v>118</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G105" s="29"/>
     </row>
@@ -3006,21 +3027,237 @@
       </c>
       <c r="G106" s="29"/>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="20"/>
+      <c r="C111" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H111" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I111" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="7"/>
+      <c r="C113" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="7"/>
+      <c r="C114" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="7"/>
+      <c r="C115" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="9"/>
+      <c r="C116" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I116" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D117" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="E117" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F117" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="G117" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H117" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I117" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I118" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B75:B79"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B46:B50"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B64:B68"/>
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B99:B103"/>
     <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B75:B79"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
